--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.195853565987079</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4853243989171148</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02653191678833089</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>16.91529272000832</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005893319121906827</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4603735044197634</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>14.21511720445929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1573447216296842</v>
+      </c>
+      <c r="D3">
+        <v>0.3883202093029894</v>
+      </c>
+      <c r="E3">
+        <v>0.02513238691291342</v>
+      </c>
+      <c r="F3">
+        <v>13.749898559928</v>
+      </c>
+      <c r="G3">
+        <v>0.0006345845808341888</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.3778063683808881</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>11.52842487012313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.13703962090365</v>
+      </c>
+      <c r="D4">
+        <v>0.3375329672962977</v>
+      </c>
+      <c r="E4">
+        <v>0.02447100027536031</v>
+      </c>
+      <c r="F4">
+        <v>12.09517681608202</v>
+      </c>
+      <c r="G4">
+        <v>0.0006600433888279496</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.3347870900257135</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10.1235438129022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1293131973012436</v>
+      </c>
+      <c r="D5">
+        <v>0.3182592898893972</v>
+      </c>
+      <c r="E5">
+        <v>0.02423691555141261</v>
+      </c>
+      <c r="F5">
+        <v>11.46859428228754</v>
+      </c>
+      <c r="G5">
+        <v>0.0006700820675502783</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.318530850302821</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>9.591437554806902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1280575623508184</v>
+      </c>
+      <c r="D6">
+        <v>0.3151294410102849</v>
+      </c>
+      <c r="E6">
+        <v>0.02419989974828596</v>
+      </c>
+      <c r="F6">
+        <v>11.36694125643885</v>
+      </c>
+      <c r="G6">
+        <v>0.0006717336117992622</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.3158955080101578</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>9.505103457795485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1369334749387434</v>
+      </c>
+      <c r="D7">
+        <v>0.3372680083489712</v>
+      </c>
+      <c r="E7">
+        <v>0.02446771345381293</v>
+      </c>
+      <c r="F7">
+        <v>12.0865566586541</v>
+      </c>
+      <c r="G7">
+        <v>0.0006601799000858072</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.334563309704123</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>10.1162239662936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1816417391805061</v>
+      </c>
+      <c r="D8">
+        <v>0.4494057534095077</v>
+      </c>
+      <c r="E8">
+        <v>0.02599652291732824</v>
+      </c>
+      <c r="F8">
+        <v>15.74333931274441</v>
+      </c>
+      <c r="G8">
+        <v>0.0006056237096783157</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.4297692220990825</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>13.22046321795639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D9">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E9">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F9">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G9">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D10">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E10">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F10">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G10">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D11">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E11">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F11">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G11">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D12">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E12">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F12">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G12">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D13">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E13">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F13">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G13">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D14">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E14">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F14">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G14">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D15">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E15">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F15">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G15">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D16">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E16">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F16">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G16">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D17">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E17">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F17">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G17">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D18">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E18">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F18">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G18">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D19">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E19">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F19">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G19">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D20">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E20">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F20">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G20">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D21">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E21">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F21">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G21">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D22">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E22">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F22">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G22">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D23">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E23">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F23">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G23">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D24">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E24">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F24">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G24">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>25.68723297486184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.3566920190305325</v>
+      </c>
+      <c r="D25">
+        <v>0.9075713019614682</v>
+      </c>
+      <c r="E25">
+        <v>0.03344107621653869</v>
+      </c>
+      <c r="F25">
+        <v>30.42174775104195</v>
+      </c>
+      <c r="G25">
+        <v>0.0004278932084009697</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.8141874210795095</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>25.68723297486184</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.195853565987079</v>
+        <v>0.1031949623407229</v>
       </c>
       <c r="D2">
-        <v>0.4853243989171148</v>
+        <v>0.04507851298534504</v>
       </c>
       <c r="E2">
-        <v>0.02653191678833089</v>
+        <v>0.05503500584504373</v>
       </c>
       <c r="F2">
-        <v>16.91529272000832</v>
+        <v>0.7909160498475103</v>
       </c>
       <c r="G2">
-        <v>0.0005893319121906827</v>
+        <v>0.7080601594074807</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4943209325929416</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6796103616833804</v>
       </c>
       <c r="J2">
-        <v>0.4603735044197634</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.664371325413697</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06176346676591749</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7800348188414361</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.21511720445929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1573447216296842</v>
+        <v>0.0938024043804262</v>
       </c>
       <c r="D3">
-        <v>0.3883202093029894</v>
+        <v>0.04408699136448035</v>
       </c>
       <c r="E3">
-        <v>0.02513238691291342</v>
+        <v>0.05222900409943421</v>
       </c>
       <c r="F3">
-        <v>13.749898559928</v>
+        <v>0.7473074343512565</v>
       </c>
       <c r="G3">
-        <v>0.0006345845808341888</v>
+        <v>0.6736730483622324</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4885918077968228</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6515829524209593</v>
       </c>
       <c r="J3">
-        <v>0.3778063683808881</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.179804065838482</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06081131370733317</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6785477278768255</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.52842487012313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.13703962090365</v>
+        <v>0.08812494192892473</v>
       </c>
       <c r="D4">
-        <v>0.3375329672962977</v>
+        <v>0.04350256691402876</v>
       </c>
       <c r="E4">
-        <v>0.02447100027536031</v>
+        <v>0.05059389670324776</v>
       </c>
       <c r="F4">
-        <v>12.09517681608202</v>
+        <v>0.7229143021881583</v>
       </c>
       <c r="G4">
-        <v>0.0006600433888279496</v>
+        <v>0.6550745429344147</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4864891926461894</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6364028566532767</v>
       </c>
       <c r="J4">
-        <v>0.3347870900257135</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.883630910497288</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06036604360198083</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6166714572361727</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.1235438129022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1293131973012436</v>
+        <v>0.08583203098286418</v>
       </c>
       <c r="D5">
-        <v>0.3182592898893972</v>
+        <v>0.04327014287839503</v>
       </c>
       <c r="E5">
-        <v>0.02423691555141261</v>
+        <v>0.04994838840144489</v>
       </c>
       <c r="F5">
-        <v>11.46859428228754</v>
+        <v>0.7135328486176178</v>
       </c>
       <c r="G5">
-        <v>0.0006700820675502783</v>
+        <v>0.6480850358653925</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.485968589926685</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6306947156841574</v>
       </c>
       <c r="J5">
-        <v>0.318530850302821</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.763204935135036</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06021786194079226</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5915490985656504</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.591437554806902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1280575623508184</v>
+        <v>0.08545249400726362</v>
       </c>
       <c r="D6">
-        <v>0.3151294410102849</v>
+        <v>0.04323188460001148</v>
       </c>
       <c r="E6">
-        <v>0.02419989974828596</v>
+        <v>0.04984242374671943</v>
       </c>
       <c r="F6">
-        <v>11.36694125643885</v>
+        <v>0.7120076967823792</v>
       </c>
       <c r="G6">
-        <v>0.0006717336117992622</v>
+        <v>0.6469588357077214</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4859019022272264</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6297748399883503</v>
       </c>
       <c r="J6">
-        <v>0.3158955080101578</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.743222379936952</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06019521616128287</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5873826703613929</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.505103457795485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1369334749387434</v>
+        <v>0.08809393744127192</v>
       </c>
       <c r="D7">
-        <v>0.3372680083489712</v>
+        <v>0.04349940963807342</v>
       </c>
       <c r="E7">
-        <v>0.02446771345381293</v>
+        <v>0.05058510850077624</v>
       </c>
       <c r="F7">
-        <v>12.0865566586541</v>
+        <v>0.7227855687651683</v>
       </c>
       <c r="G7">
-        <v>0.0006601799000858072</v>
+        <v>0.6549779477765583</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4864808352270984</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6363239809741543</v>
       </c>
       <c r="J7">
-        <v>0.334563309704123</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.882005815572654</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06036391272651898</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6163322947505847</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.1162239662936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1816417391805061</v>
+        <v>0.09993666605849683</v>
       </c>
       <c r="D8">
-        <v>0.4494057534095077</v>
+        <v>0.04473132554920412</v>
       </c>
       <c r="E8">
-        <v>0.02599652291732824</v>
+        <v>0.05404848868681178</v>
       </c>
       <c r="F8">
-        <v>15.74333931274441</v>
+        <v>0.7753602353970237</v>
       </c>
       <c r="G8">
-        <v>0.0006056237096783157</v>
+        <v>0.6956546854856072</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4920396237305766</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6695053195526413</v>
       </c>
       <c r="J8">
-        <v>0.4297692220990825</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.496965762781826</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06140513833529582</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7449405454200004</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.22046321795639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3566920190305325</v>
+        <v>0.1239616888084356</v>
       </c>
       <c r="D9">
-        <v>0.9075713019614682</v>
+        <v>0.04736089550571165</v>
       </c>
       <c r="E9">
-        <v>0.03344107621653869</v>
+        <v>0.06159846080424813</v>
       </c>
       <c r="F9">
-        <v>30.42174775104195</v>
+        <v>0.8993229615459768</v>
       </c>
       <c r="G9">
-        <v>0.0004278932084009697</v>
+        <v>0.7974715645538595</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5151229646286311</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7522446427093001</v>
       </c>
       <c r="J9">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.717287571218492</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06463890886707446</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.001464735966941</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3566920190305325</v>
+        <v>0.1422400879069556</v>
       </c>
       <c r="D10">
-        <v>0.9075713019614682</v>
+        <v>0.0494558068574662</v>
       </c>
       <c r="E10">
-        <v>0.03344107621653869</v>
+        <v>0.06770134374764325</v>
       </c>
       <c r="F10">
-        <v>30.42174775104195</v>
+        <v>1.006083409988094</v>
       </c>
       <c r="G10">
-        <v>0.0004278932084009697</v>
+        <v>0.8888883109894863</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5409551991174055</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8261886731912611</v>
       </c>
       <c r="J10">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.628267592943359</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06787178117811976</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.19388459804523</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3566920190305325</v>
+        <v>0.1507258827565892</v>
       </c>
       <c r="D11">
-        <v>0.9075713019614682</v>
+        <v>0.05045278049292534</v>
       </c>
       <c r="E11">
-        <v>0.03344107621653869</v>
+        <v>0.07062148688729764</v>
       </c>
       <c r="F11">
-        <v>30.42174775104195</v>
+        <v>1.058790149272127</v>
       </c>
       <c r="G11">
-        <v>0.0004278932084009697</v>
+        <v>0.9348675327209719</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5549916708841636</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8632735104835163</v>
       </c>
       <c r="J11">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.047230062246399</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06956076022711244</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.282606538078795</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3566920190305325</v>
+        <v>0.1539669431298734</v>
       </c>
       <c r="D12">
-        <v>0.9075713019614682</v>
+        <v>0.05083745987454336</v>
       </c>
       <c r="E12">
-        <v>0.03344107621653869</v>
+        <v>0.0717500896112746</v>
       </c>
       <c r="F12">
-        <v>30.42174775104195</v>
+        <v>1.079412295056528</v>
       </c>
       <c r="G12">
-        <v>0.0004278932084009697</v>
+        <v>0.9529833745625496</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5606688914678415</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8778670502089554</v>
       </c>
       <c r="J12">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.206664153557711</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07023471179935115</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.316404309516329</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3566920190305325</v>
+        <v>0.1532676392571375</v>
       </c>
       <c r="D13">
-        <v>0.9075713019614682</v>
+        <v>0.05075428016893824</v>
       </c>
       <c r="E13">
-        <v>0.03344107621653869</v>
+        <v>0.07150597455870056</v>
       </c>
       <c r="F13">
-        <v>30.42174775104195</v>
+        <v>1.074940295946476</v>
       </c>
       <c r="G13">
-        <v>0.0004278932084009697</v>
+        <v>0.949049232501153</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5594295374906579</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8746986660788565</v>
       </c>
       <c r="J13">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.172290216039528</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07008798500037727</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.309115923143693</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3566920190305325</v>
+        <v>0.1509919532419559</v>
       </c>
       <c r="D14">
-        <v>0.9075713019614682</v>
+        <v>0.05048427996564442</v>
       </c>
       <c r="E14">
-        <v>0.03344107621653869</v>
+        <v>0.07071386776511446</v>
       </c>
       <c r="F14">
-        <v>30.42174775104195</v>
+        <v>1.060473040466164</v>
       </c>
       <c r="G14">
-        <v>0.0004278932084009697</v>
+        <v>0.9363433713558749</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5554512831035368</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8644627681791377</v>
       </c>
       <c r="J14">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.060330350078914</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06961549966224112</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.285382897865489</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3566920190305325</v>
+        <v>0.1496017311629316</v>
       </c>
       <c r="D15">
-        <v>0.9075713019614682</v>
+        <v>0.0503198540391665</v>
       </c>
       <c r="E15">
-        <v>0.03344107621653869</v>
+        <v>0.07023171598470768</v>
       </c>
       <c r="F15">
-        <v>30.42174775104195</v>
+        <v>1.051699931350527</v>
       </c>
       <c r="G15">
-        <v>0.0004278932084009697</v>
+        <v>0.9286546976688186</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5530626652718382</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.858266366957281</v>
       </c>
       <c r="J15">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.991857555059994</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06933065834376606</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.27087280436632</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3566920190305325</v>
+        <v>0.1416892179578326</v>
       </c>
       <c r="D16">
-        <v>0.9075713019614682</v>
+        <v>0.04939160526394204</v>
       </c>
       <c r="E16">
-        <v>0.03344107621653869</v>
+        <v>0.067513577463437</v>
       </c>
       <c r="F16">
-        <v>30.42174775104195</v>
+        <v>1.002727868850485</v>
       </c>
       <c r="G16">
-        <v>0.0004278932084009697</v>
+        <v>0.8859779196677238</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5400866384289742</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8238390047906066</v>
       </c>
       <c r="J16">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.600989624677027</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06776604361224159</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.188112810731681</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3566920190305325</v>
+        <v>0.136881024327451</v>
       </c>
       <c r="D17">
-        <v>0.9075713019614682</v>
+        <v>0.04883397279038348</v>
       </c>
       <c r="E17">
-        <v>0.03344107621653869</v>
+        <v>0.06588438762139148</v>
       </c>
       <c r="F17">
-        <v>30.42174775104195</v>
+        <v>0.9737918334859472</v>
       </c>
       <c r="G17">
-        <v>0.0004278932084009697</v>
+        <v>0.8609718435530596</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.532734232794013</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8036390418551491</v>
       </c>
       <c r="J17">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.362457581831222</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06686415033142623</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.137667016549045</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3566920190305325</v>
+        <v>0.1341313576939029</v>
       </c>
       <c r="D18">
-        <v>0.9075713019614682</v>
+        <v>0.04851732249672125</v>
       </c>
       <c r="E18">
-        <v>0.03344107621653869</v>
+        <v>0.06496072831228616</v>
       </c>
       <c r="F18">
-        <v>30.42174775104195</v>
+        <v>0.9575339143424202</v>
       </c>
       <c r="G18">
-        <v>0.0004278932084009697</v>
+        <v>0.8469977622549578</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5287182419137082</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7923414625900662</v>
       </c>
       <c r="J18">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.225680459779539</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06636576081431755</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.108761914345394</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3566920190305325</v>
+        <v>0.1332030053215902</v>
       </c>
       <c r="D19">
-        <v>0.9075713019614682</v>
+        <v>0.04841078845105073</v>
       </c>
       <c r="E19">
-        <v>0.03344107621653869</v>
+        <v>0.06465023476934562</v>
       </c>
       <c r="F19">
-        <v>30.42174775104195</v>
+        <v>0.9520934839602688</v>
       </c>
       <c r="G19">
-        <v>0.0004278932084009697</v>
+        <v>0.8423344819071872</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.527394104490341</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7885698358478379</v>
       </c>
       <c r="J19">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.179438573245193</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06620042476639298</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.098993176503541</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3566920190305325</v>
+        <v>0.1373911997786337</v>
       </c>
       <c r="D20">
-        <v>0.9075713019614682</v>
+        <v>0.04889290530647372</v>
       </c>
       <c r="E20">
-        <v>0.03344107621653869</v>
+        <v>0.0660564153591281</v>
       </c>
       <c r="F20">
-        <v>30.42174775104195</v>
+        <v>0.9768317745652837</v>
       </c>
       <c r="G20">
-        <v>0.0004278932084009697</v>
+        <v>0.8635909747539046</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.533494642092819</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8057557716766084</v>
       </c>
       <c r="J20">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.387805354262923</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06695803104044984</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.143025468851206</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3566920190305325</v>
+        <v>0.1516596000594745</v>
       </c>
       <c r="D21">
-        <v>0.9075713019614682</v>
+        <v>0.05056338451253595</v>
       </c>
       <c r="E21">
-        <v>0.03344107621653869</v>
+        <v>0.07094589185968303</v>
       </c>
       <c r="F21">
-        <v>30.42174775104195</v>
+        <v>1.064703849481546</v>
       </c>
       <c r="G21">
-        <v>0.0004278932084009697</v>
+        <v>0.9400556539129212</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.556609688350278</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8674539014820297</v>
       </c>
       <c r="J21">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.093193370338383</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06975332202576823</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.292348164037662</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3566920190305325</v>
+        <v>0.1611477973160333</v>
       </c>
       <c r="D22">
-        <v>0.9075713019614682</v>
+        <v>0.05169726001253139</v>
       </c>
       <c r="E22">
-        <v>0.03344107621653869</v>
+        <v>0.07427552353933109</v>
       </c>
       <c r="F22">
-        <v>30.42174775104195</v>
+        <v>1.126035789155551</v>
       </c>
       <c r="G22">
-        <v>0.0004278932084009697</v>
+        <v>0.9941754365485593</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5738442004709867</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9110143138115347</v>
       </c>
       <c r="J22">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.558832731099869</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07178215296109869</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.391125033215232</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3566920190305325</v>
+        <v>0.1560677484912389</v>
       </c>
       <c r="D23">
-        <v>0.9075713019614682</v>
+        <v>0.05108793479140417</v>
       </c>
       <c r="E23">
-        <v>0.03344107621653869</v>
+        <v>0.07248541494818284</v>
       </c>
       <c r="F23">
-        <v>30.42174775104195</v>
+        <v>1.092920477019405</v>
       </c>
       <c r="G23">
-        <v>0.0004278932084009697</v>
+        <v>0.9648853372308963</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5644392398412208</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8874495882670885</v>
       </c>
       <c r="J23">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.309843232531648</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07067978711446443</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.338286831578174</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3566920190305325</v>
+        <v>0.1371605041254185</v>
       </c>
       <c r="D24">
-        <v>0.9075713019614682</v>
+        <v>0.04886624970441034</v>
       </c>
       <c r="E24">
-        <v>0.03344107621653869</v>
+        <v>0.06597860133500077</v>
       </c>
       <c r="F24">
-        <v>30.42174775104195</v>
+        <v>0.9754562455031817</v>
       </c>
       <c r="G24">
-        <v>0.0004278932084009697</v>
+        <v>0.8624056180437236</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5331502062902587</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8047978190088045</v>
       </c>
       <c r="J24">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.376344520325915</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06691552512098653</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.140602613084937</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3566920190305325</v>
+        <v>0.1173629016252278</v>
       </c>
       <c r="D25">
-        <v>0.9075713019614682</v>
+        <v>0.04662352271332537</v>
       </c>
       <c r="E25">
-        <v>0.03344107621653869</v>
+        <v>0.05946562719706705</v>
       </c>
       <c r="F25">
-        <v>30.42174775104195</v>
+        <v>0.8632635726365976</v>
       </c>
       <c r="G25">
-        <v>0.0004278932084009697</v>
+        <v>0.7672564652015836</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5074325413056329</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7277363126200882</v>
       </c>
       <c r="J25">
-        <v>0.8141874210795095</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.385067181400302</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06362370314877097</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9314766379729065</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.68723297486184</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1031949623407229</v>
+        <v>0.1537058255821364</v>
       </c>
       <c r="D2">
-        <v>0.04507851298534504</v>
+        <v>0.05864746209059035</v>
       </c>
       <c r="E2">
-        <v>0.05503500584504373</v>
+        <v>0.1087292628355794</v>
       </c>
       <c r="F2">
-        <v>0.7909160498475103</v>
+        <v>1.265528993469843</v>
       </c>
       <c r="G2">
-        <v>0.7080601594074807</v>
+        <v>1.143207389041763</v>
       </c>
       <c r="H2">
-        <v>0.4943209325929416</v>
+        <v>1.120195522848078</v>
       </c>
       <c r="I2">
-        <v>0.6796103616833804</v>
+        <v>1.234212713028789</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.664371325413697</v>
+        <v>1.448946915182546</v>
       </c>
       <c r="L2">
-        <v>0.06176346676591749</v>
+        <v>0.1432784980572102</v>
       </c>
       <c r="M2">
-        <v>0.7800348188414361</v>
+        <v>0.4299060103059702</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0938024043804262</v>
+        <v>0.1518217575302572</v>
       </c>
       <c r="D3">
-        <v>0.04408699136448035</v>
+        <v>0.05828845029586205</v>
       </c>
       <c r="E3">
-        <v>0.05222900409943421</v>
+        <v>0.1087494092808434</v>
       </c>
       <c r="F3">
-        <v>0.7473074343512565</v>
+        <v>1.268801857319197</v>
       </c>
       <c r="G3">
-        <v>0.6736730483622324</v>
+        <v>1.148937271085273</v>
       </c>
       <c r="H3">
-        <v>0.4885918077968228</v>
+        <v>1.129621899936978</v>
       </c>
       <c r="I3">
-        <v>0.6515829524209593</v>
+        <v>1.240440210805446</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.179804065838482</v>
+        <v>1.304713784161095</v>
       </c>
       <c r="L3">
-        <v>0.06081131370733317</v>
+        <v>0.1442383484674679</v>
       </c>
       <c r="M3">
-        <v>0.6785477278768255</v>
+        <v>0.4015921378362961</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08812494192892473</v>
+        <v>0.1507170015957655</v>
       </c>
       <c r="D4">
-        <v>0.04350256691402876</v>
+        <v>0.05807732462367809</v>
       </c>
       <c r="E4">
-        <v>0.05059389670324776</v>
+        <v>0.1088113820550465</v>
       </c>
       <c r="F4">
-        <v>0.7229143021881583</v>
+        <v>1.271799893731924</v>
       </c>
       <c r="G4">
-        <v>0.6550745429344147</v>
+        <v>1.153443252540413</v>
       </c>
       <c r="H4">
-        <v>0.4864891926461894</v>
+        <v>1.136100161980764</v>
       </c>
       <c r="I4">
-        <v>0.6364028566532767</v>
+        <v>1.24515460087985</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.883630910497288</v>
+        <v>1.216251273249554</v>
       </c>
       <c r="L4">
-        <v>0.06036604360198083</v>
+        <v>0.1449028153421743</v>
       </c>
       <c r="M4">
-        <v>0.6166714572361727</v>
+        <v>0.3843226260682542</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08583203098286418</v>
+        <v>0.1502799412720037</v>
       </c>
       <c r="D5">
-        <v>0.04327014287839503</v>
+        <v>0.05799364817528385</v>
       </c>
       <c r="E5">
-        <v>0.04994838840144489</v>
+        <v>0.1088491149013979</v>
       </c>
       <c r="F5">
-        <v>0.7135328486176178</v>
+        <v>1.273269550453314</v>
       </c>
       <c r="G5">
-        <v>0.6480850358653925</v>
+        <v>1.15552706596408</v>
       </c>
       <c r="H5">
-        <v>0.485968589926685</v>
+        <v>1.13891348436465</v>
       </c>
       <c r="I5">
-        <v>0.6306947156841574</v>
+        <v>1.247299249012059</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.763204935135036</v>
+        <v>1.180227891728435</v>
       </c>
       <c r="L5">
-        <v>0.06021786194079226</v>
+        <v>0.145192467651885</v>
       </c>
       <c r="M5">
-        <v>0.5915490985656504</v>
+        <v>0.3773144080567548</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08545249400726362</v>
+        <v>0.150208162453616</v>
       </c>
       <c r="D6">
-        <v>0.04323188460001148</v>
+        <v>0.05797989678565685</v>
       </c>
       <c r="E6">
-        <v>0.04984242374671943</v>
+        <v>0.1088561342426413</v>
       </c>
       <c r="F6">
-        <v>0.7120076967823792</v>
+        <v>1.273528541913052</v>
       </c>
       <c r="G6">
-        <v>0.6469588357077214</v>
+        <v>1.155888011854557</v>
       </c>
       <c r="H6">
-        <v>0.4859019022272264</v>
+        <v>1.139391099117589</v>
       </c>
       <c r="I6">
-        <v>0.6297748399883503</v>
+        <v>1.247668850964779</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.743222379936952</v>
+        <v>1.174247836415816</v>
       </c>
       <c r="L6">
-        <v>0.06019521616128287</v>
+        <v>0.1452417039658123</v>
       </c>
       <c r="M6">
-        <v>0.5873826703613929</v>
+        <v>0.3761524728209622</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08809393744127192</v>
+        <v>0.1507110539996432</v>
       </c>
       <c r="D7">
-        <v>0.04349940963807342</v>
+        <v>0.05807618655881441</v>
       </c>
       <c r="E7">
-        <v>0.05058510850077624</v>
+        <v>0.1088118404012466</v>
       </c>
       <c r="F7">
-        <v>0.7227855687651683</v>
+        <v>1.271818711008663</v>
       </c>
       <c r="G7">
-        <v>0.6549779477765583</v>
+        <v>1.153470354168547</v>
       </c>
       <c r="H7">
-        <v>0.4864808352270984</v>
+        <v>1.136137401748641</v>
       </c>
       <c r="I7">
-        <v>0.6363239809741543</v>
+        <v>1.245182620061463</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.882005815572654</v>
+        <v>1.215765342990153</v>
       </c>
       <c r="L7">
-        <v>0.06036391272651898</v>
+        <v>0.1449066452792245</v>
       </c>
       <c r="M7">
-        <v>0.6163322947505847</v>
+        <v>0.3842279920277534</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09993666605849683</v>
+        <v>0.1530454168845381</v>
       </c>
       <c r="D8">
-        <v>0.04473132554920412</v>
+        <v>0.05852175326889508</v>
       </c>
       <c r="E8">
-        <v>0.05404848868681178</v>
+        <v>0.1087259172181021</v>
       </c>
       <c r="F8">
-        <v>0.7753602353970237</v>
+        <v>1.266451934704186</v>
       </c>
       <c r="G8">
-        <v>0.6956546854856072</v>
+        <v>1.144977546651091</v>
       </c>
       <c r="H8">
-        <v>0.4920396237305766</v>
+        <v>1.123302296734337</v>
       </c>
       <c r="I8">
-        <v>0.6695053195526413</v>
+        <v>1.236174806543978</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.496965762781826</v>
+        <v>1.399195918769124</v>
       </c>
       <c r="L8">
-        <v>0.06140513833529582</v>
+        <v>0.1435938573075006</v>
       </c>
       <c r="M8">
-        <v>0.7449405454200004</v>
+        <v>0.4201195911521864</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1239616888084356</v>
+        <v>0.1580347222860468</v>
       </c>
       <c r="D9">
-        <v>0.04736089550571165</v>
+        <v>0.05946866966748843</v>
       </c>
       <c r="E9">
-        <v>0.06159846080424813</v>
+        <v>0.1089508875556788</v>
       </c>
       <c r="F9">
-        <v>0.8993229615459768</v>
+        <v>1.263800851630123</v>
       </c>
       <c r="G9">
-        <v>0.7974715645538595</v>
+        <v>1.136198355918623</v>
       </c>
       <c r="H9">
-        <v>0.5151229646286311</v>
+        <v>1.103621963195806</v>
       </c>
       <c r="I9">
-        <v>0.7522446427093001</v>
+        <v>1.225600093071016</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.717287571218492</v>
+        <v>1.759633742078279</v>
       </c>
       <c r="L9">
-        <v>0.06463890886707446</v>
+        <v>0.1416160724770137</v>
       </c>
       <c r="M9">
-        <v>1.001464735966941</v>
+        <v>0.4914110271719565</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1422400879069556</v>
+        <v>0.1619498293260619</v>
       </c>
       <c r="D10">
-        <v>0.0494558068574662</v>
+        <v>0.06020816840232612</v>
       </c>
       <c r="E10">
-        <v>0.06770134374764325</v>
+        <v>0.1093560819900645</v>
       </c>
       <c r="F10">
-        <v>1.006083409988094</v>
+        <v>1.266696508888771</v>
       </c>
       <c r="G10">
-        <v>0.8888883109894863</v>
+        <v>1.134602486366504</v>
       </c>
       <c r="H10">
-        <v>0.5409551991174055</v>
+        <v>1.09252506986644</v>
       </c>
       <c r="I10">
-        <v>0.8261886731912611</v>
+        <v>1.222185466704666</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.628267592943359</v>
+        <v>2.024867823284922</v>
       </c>
       <c r="L10">
-        <v>0.06787178117811976</v>
+        <v>0.1405275946251727</v>
       </c>
       <c r="M10">
-        <v>1.19388459804523</v>
+        <v>0.544339231139702</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1507258827565892</v>
+        <v>0.1637848162691284</v>
       </c>
       <c r="D11">
-        <v>0.05045278049292534</v>
+        <v>0.0605539454587074</v>
       </c>
       <c r="E11">
-        <v>0.07062148688729764</v>
+        <v>0.1095925348392441</v>
       </c>
       <c r="F11">
-        <v>1.058790149272127</v>
+        <v>1.269075088422397</v>
       </c>
       <c r="G11">
-        <v>0.9348675327209719</v>
+        <v>1.134942110039702</v>
       </c>
       <c r="H11">
-        <v>0.5549916708841636</v>
+        <v>1.088210368319963</v>
       </c>
       <c r="I11">
-        <v>0.8632735104835163</v>
+        <v>1.221584775778467</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.047230062246399</v>
+        <v>2.145617933554888</v>
       </c>
       <c r="L11">
-        <v>0.06956076022711244</v>
+        <v>0.1401117927266711</v>
       </c>
       <c r="M11">
-        <v>1.282606538078795</v>
+        <v>0.5685369485545095</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1539669431298734</v>
+        <v>0.1644874085830423</v>
       </c>
       <c r="D12">
-        <v>0.05083745987454336</v>
+        <v>0.06068621673274066</v>
       </c>
       <c r="E12">
-        <v>0.0717500896112746</v>
+        <v>0.109689568435428</v>
       </c>
       <c r="F12">
-        <v>1.079412295056528</v>
+        <v>1.270129150674364</v>
       </c>
       <c r="G12">
-        <v>0.9529833745625496</v>
+        <v>1.135224862146515</v>
       </c>
       <c r="H12">
-        <v>0.5606688914678415</v>
+        <v>1.08668223831414</v>
       </c>
       <c r="I12">
-        <v>0.8778670502089554</v>
+        <v>1.221494856183206</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.206664153557711</v>
+        <v>2.191355518348416</v>
       </c>
       <c r="L12">
-        <v>0.07023471179935115</v>
+        <v>0.1399657663520841</v>
       </c>
       <c r="M12">
-        <v>1.316404309516329</v>
+        <v>0.5777171726811332</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1532676392571375</v>
+        <v>0.1643357499288811</v>
       </c>
       <c r="D13">
-        <v>0.05075428016893824</v>
+        <v>0.06065767069532058</v>
       </c>
       <c r="E13">
-        <v>0.07150597455870056</v>
+        <v>0.1096683372432068</v>
       </c>
       <c r="F13">
-        <v>1.074940295946476</v>
+        <v>1.269895307810842</v>
       </c>
       <c r="G13">
-        <v>0.949049232501153</v>
+        <v>1.135157096272678</v>
       </c>
       <c r="H13">
-        <v>0.5594295374906579</v>
+        <v>1.087006640200599</v>
       </c>
       <c r="I13">
-        <v>0.8746986660788565</v>
+        <v>1.221508095504198</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.172290216039528</v>
+        <v>2.181504592363922</v>
       </c>
       <c r="L13">
-        <v>0.07008798500037727</v>
+        <v>0.1399967071574864</v>
       </c>
       <c r="M13">
-        <v>1.309115923143693</v>
+        <v>0.575739291576653</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1509919532419559</v>
+        <v>0.1638424644192185</v>
       </c>
       <c r="D14">
-        <v>0.05048427996564442</v>
+        <v>0.06056480086562743</v>
       </c>
       <c r="E14">
-        <v>0.07071386776511446</v>
+        <v>0.1096003676701542</v>
       </c>
       <c r="F14">
-        <v>1.060473040466164</v>
+        <v>1.269158729307762</v>
       </c>
       <c r="G14">
-        <v>0.9363433713558749</v>
+        <v>1.134962277716795</v>
       </c>
       <c r="H14">
-        <v>0.5554512831035368</v>
+        <v>1.088082526947161</v>
       </c>
       <c r="I14">
-        <v>0.8644627681791377</v>
+        <v>1.221574618136295</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.060330350078914</v>
+        <v>2.149380556513393</v>
       </c>
       <c r="L14">
-        <v>0.06961549966224112</v>
+        <v>0.1400995498952256</v>
       </c>
       <c r="M14">
-        <v>1.285382897865489</v>
+        <v>0.5692918702954017</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1496017311629316</v>
+        <v>0.1635413173207922</v>
       </c>
       <c r="D15">
-        <v>0.0503198540391665</v>
+        <v>0.06050808857041545</v>
       </c>
       <c r="E15">
-        <v>0.07023171598470768</v>
+        <v>0.1095597102357218</v>
       </c>
       <c r="F15">
-        <v>1.051699931350527</v>
+        <v>1.268727545473595</v>
       </c>
       <c r="G15">
-        <v>0.9286546976688186</v>
+        <v>1.134863046940907</v>
       </c>
       <c r="H15">
-        <v>0.5530626652718382</v>
+        <v>1.088755319894219</v>
       </c>
       <c r="I15">
-        <v>0.858266366957281</v>
+        <v>1.221633294772609</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.991857555059994</v>
+        <v>2.12970519834164</v>
       </c>
       <c r="L15">
-        <v>0.06933065834376606</v>
+        <v>0.1401640329449094</v>
       </c>
       <c r="M15">
-        <v>1.27087280436632</v>
+        <v>0.565344855042639</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1416892179578326</v>
+        <v>0.1618309914616134</v>
       </c>
       <c r="D16">
-        <v>0.04939160526394204</v>
+        <v>0.06018575840355567</v>
       </c>
       <c r="E16">
-        <v>0.067513577463437</v>
+        <v>0.1093416780202112</v>
       </c>
       <c r="F16">
-        <v>1.002727868850485</v>
+        <v>1.266562481993219</v>
       </c>
       <c r="G16">
-        <v>0.8859779196677238</v>
+        <v>1.134601811636202</v>
       </c>
       <c r="H16">
-        <v>0.5400866384289742</v>
+        <v>1.092821828012973</v>
       </c>
       <c r="I16">
-        <v>0.8238390047906066</v>
+        <v>1.222243940705738</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.600989624677027</v>
+        <v>2.016978290921031</v>
       </c>
       <c r="L16">
-        <v>0.06776604361224159</v>
+        <v>0.1405563665628762</v>
       </c>
       <c r="M16">
-        <v>1.188112810731681</v>
+        <v>0.5427602556110287</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.136881024327451</v>
+        <v>0.160795559850925</v>
       </c>
       <c r="D17">
-        <v>0.04883397279038348</v>
+        <v>0.05999040954750967</v>
       </c>
       <c r="E17">
-        <v>0.06588438762139148</v>
+        <v>0.1092212721087513</v>
       </c>
       <c r="F17">
-        <v>0.9737918334859472</v>
+        <v>1.265506635391432</v>
       </c>
       <c r="G17">
-        <v>0.8609718435530596</v>
+        <v>1.134715125434411</v>
       </c>
       <c r="H17">
-        <v>0.532734232794013</v>
+        <v>1.095504536921183</v>
       </c>
       <c r="I17">
-        <v>0.8036390418551491</v>
+        <v>1.222862944554116</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.362457581831222</v>
+        <v>1.947847037244912</v>
       </c>
       <c r="L17">
-        <v>0.06686415033142623</v>
+        <v>0.1408173872948808</v>
       </c>
       <c r="M17">
-        <v>1.137667016549045</v>
+        <v>0.5289360019350084</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1341313576939029</v>
+        <v>0.1602050906837462</v>
       </c>
       <c r="D18">
-        <v>0.04851732249672125</v>
+        <v>0.05987893336882166</v>
       </c>
       <c r="E18">
-        <v>0.06496072831228616</v>
+        <v>0.1091569244361246</v>
       </c>
       <c r="F18">
-        <v>0.9575339143424202</v>
+        <v>1.264999194217609</v>
       </c>
       <c r="G18">
-        <v>0.8469977622549578</v>
+        <v>1.134880544502451</v>
       </c>
       <c r="H18">
-        <v>0.5287182419137082</v>
+        <v>1.097116566554433</v>
       </c>
       <c r="I18">
-        <v>0.7923414625900662</v>
+        <v>1.223308612543825</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.225680459779539</v>
+        <v>1.908093475659882</v>
       </c>
       <c r="L18">
-        <v>0.06636576081431755</v>
+        <v>0.1409749874247481</v>
       </c>
       <c r="M18">
-        <v>1.108761914345394</v>
+        <v>0.5209960046211251</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1332030053215902</v>
+        <v>0.1600060423428857</v>
       </c>
       <c r="D19">
-        <v>0.04841078845105073</v>
+        <v>0.05984134163395538</v>
       </c>
       <c r="E19">
-        <v>0.06465023476934562</v>
+        <v>0.1091359801978022</v>
       </c>
       <c r="F19">
-        <v>0.9520934839602688</v>
+        <v>1.26484451120352</v>
       </c>
       <c r="G19">
-        <v>0.8423344819071872</v>
+        <v>1.134953741760029</v>
       </c>
       <c r="H19">
-        <v>0.527394104490341</v>
+        <v>1.097674214848709</v>
       </c>
       <c r="I19">
-        <v>0.7885698358478379</v>
+        <v>1.22347488563075</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.179438573245193</v>
+        <v>1.894635174226153</v>
       </c>
       <c r="L19">
-        <v>0.06620042476639298</v>
+        <v>0.1410296301947334</v>
       </c>
       <c r="M19">
-        <v>1.098993176503541</v>
+        <v>0.5183096144093611</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1373911997786337</v>
+        <v>0.1609052574648473</v>
       </c>
       <c r="D20">
-        <v>0.04889290530647372</v>
+        <v>0.06001111345840116</v>
       </c>
       <c r="E20">
-        <v>0.0660564153591281</v>
+        <v>0.1092335817208578</v>
       </c>
       <c r="F20">
-        <v>0.9768317745652837</v>
+        <v>1.265608692289362</v>
       </c>
       <c r="G20">
-        <v>0.8635909747539046</v>
+        <v>1.134692681495707</v>
       </c>
       <c r="H20">
-        <v>0.533494642092819</v>
+        <v>1.095211813883353</v>
       </c>
       <c r="I20">
-        <v>0.8057557716766084</v>
+        <v>1.222787769759876</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.387805354262923</v>
+        <v>1.955205265252744</v>
       </c>
       <c r="L20">
-        <v>0.06695803104044984</v>
+        <v>0.1407888281617033</v>
       </c>
       <c r="M20">
-        <v>1.143025468851206</v>
+        <v>0.5304064446585102</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1516596000594745</v>
+        <v>0.1639871450607586</v>
       </c>
       <c r="D21">
-        <v>0.05056338451253595</v>
+        <v>0.06059204292549225</v>
       </c>
       <c r="E21">
-        <v>0.07094589185968303</v>
+        <v>0.1096201286094889</v>
       </c>
       <c r="F21">
-        <v>1.064703849481546</v>
+        <v>1.269370912702101</v>
       </c>
       <c r="G21">
-        <v>0.9400556539129212</v>
+        <v>1.135015309942645</v>
       </c>
       <c r="H21">
-        <v>0.556609688350278</v>
+        <v>1.087763640388758</v>
       </c>
       <c r="I21">
-        <v>0.8674539014820297</v>
+        <v>1.221551341310843</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.093193370338383</v>
+        <v>2.158815845685638</v>
       </c>
       <c r="L21">
-        <v>0.06975332202576823</v>
+        <v>0.1400690321718443</v>
       </c>
       <c r="M21">
-        <v>1.292348164037662</v>
+        <v>0.5711851727295425</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1611477973160333</v>
+        <v>0.1660463316212315</v>
       </c>
       <c r="D22">
-        <v>0.05169726001253139</v>
+        <v>0.06097947713367802</v>
       </c>
       <c r="E22">
-        <v>0.07427552353933109</v>
+        <v>0.1099164395760042</v>
       </c>
       <c r="F22">
-        <v>1.126035789155551</v>
+        <v>1.272723896503337</v>
       </c>
       <c r="G22">
-        <v>0.9941754365485593</v>
+        <v>1.136125060028093</v>
       </c>
       <c r="H22">
-        <v>0.5738442004709867</v>
+        <v>1.083512383778782</v>
       </c>
       <c r="I22">
-        <v>0.9110143138115347</v>
+        <v>1.221545265998238</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.558832731099869</v>
+        <v>2.291957281579982</v>
       </c>
       <c r="L22">
-        <v>0.07178215296109869</v>
+        <v>0.139665228064672</v>
       </c>
       <c r="M22">
-        <v>1.391125033215232</v>
+        <v>0.5979358400745127</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1560677484912389</v>
+        <v>0.1649432011377741</v>
       </c>
       <c r="D23">
-        <v>0.05108793479140417</v>
+        <v>0.06077199070827533</v>
       </c>
       <c r="E23">
-        <v>0.07248541494818284</v>
+        <v>0.1097542966652902</v>
       </c>
       <c r="F23">
-        <v>1.092920477019405</v>
+        <v>1.270852289929024</v>
       </c>
       <c r="G23">
-        <v>0.9648853372308963</v>
+        <v>1.135450214701763</v>
       </c>
       <c r="H23">
-        <v>0.5644392398412208</v>
+        <v>1.085724844517188</v>
       </c>
       <c r="I23">
-        <v>0.8874495882670885</v>
+        <v>1.221474939669648</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.309843232531648</v>
+        <v>2.220891209666433</v>
       </c>
       <c r="L23">
-        <v>0.07067978711446443</v>
+        <v>0.1398746437910461</v>
       </c>
       <c r="M23">
-        <v>1.338286831578174</v>
+        <v>0.5836494873919946</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1371605041254185</v>
+        <v>0.1608556481763088</v>
       </c>
       <c r="D24">
-        <v>0.04886624970441034</v>
+        <v>0.06000175062494151</v>
       </c>
       <c r="E24">
-        <v>0.06597860133500077</v>
+        <v>0.1092280013592735</v>
       </c>
       <c r="F24">
-        <v>0.9754562455031817</v>
+        <v>1.265562242227972</v>
       </c>
       <c r="G24">
-        <v>0.8624056180437236</v>
+        <v>1.134702516114245</v>
       </c>
       <c r="H24">
-        <v>0.5331502062902587</v>
+        <v>1.09534393685361</v>
       </c>
       <c r="I24">
-        <v>0.8047978190088045</v>
+        <v>1.222821476612744</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.376344520325915</v>
+        <v>1.951878638572964</v>
       </c>
       <c r="L24">
-        <v>0.06691552512098653</v>
+        <v>0.1408017162734225</v>
       </c>
       <c r="M24">
-        <v>1.140602613084937</v>
+        <v>0.5297416333462195</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1173629016252278</v>
+        <v>0.156641070554798</v>
       </c>
       <c r="D25">
-        <v>0.04662352271332537</v>
+        <v>0.05920475668520453</v>
       </c>
       <c r="E25">
-        <v>0.05946562719706705</v>
+        <v>0.1088479003459639</v>
       </c>
       <c r="F25">
-        <v>0.8632635726365976</v>
+        <v>1.263670648254958</v>
       </c>
       <c r="G25">
-        <v>0.7672564652015836</v>
+        <v>1.137724762857928</v>
       </c>
       <c r="H25">
-        <v>0.5074325413056329</v>
+        <v>1.108356718106677</v>
       </c>
       <c r="I25">
-        <v>0.7277363126200882</v>
+        <v>1.227698477507722</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.385067181400302</v>
+        <v>1.662050238773872</v>
       </c>
       <c r="L25">
-        <v>0.06362370314877097</v>
+        <v>0.1420871539216826</v>
       </c>
       <c r="M25">
-        <v>0.9314766379729065</v>
+        <v>0.4720279430649228</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1537058255821364</v>
+        <v>0.1031949623407229</v>
       </c>
       <c r="D2">
-        <v>0.05864746209059035</v>
+        <v>0.04507851298534149</v>
       </c>
       <c r="E2">
-        <v>0.1087292628355794</v>
+        <v>0.05503500584505794</v>
       </c>
       <c r="F2">
-        <v>1.265528993469843</v>
+        <v>0.7909160498475103</v>
       </c>
       <c r="G2">
-        <v>1.143207389041763</v>
+        <v>0.7080601594074665</v>
       </c>
       <c r="H2">
-        <v>1.120195522848078</v>
+        <v>0.4943209325930695</v>
       </c>
       <c r="I2">
-        <v>1.234212713028789</v>
+        <v>0.6796103616833733</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.448946915182546</v>
+        <v>3.664371325413811</v>
       </c>
       <c r="L2">
-        <v>0.1432784980572102</v>
+        <v>0.06176346676591038</v>
       </c>
       <c r="M2">
-        <v>0.4299060103059702</v>
+        <v>0.7800348188414148</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1518217575302572</v>
+        <v>0.0938024043804262</v>
       </c>
       <c r="D3">
-        <v>0.05828845029586205</v>
+        <v>0.04408699136464733</v>
       </c>
       <c r="E3">
-        <v>0.1087494092808434</v>
+        <v>0.05222900409942</v>
       </c>
       <c r="F3">
-        <v>1.268801857319197</v>
+        <v>0.7473074343512494</v>
       </c>
       <c r="G3">
-        <v>1.148937271085273</v>
+        <v>0.6736730483621756</v>
       </c>
       <c r="H3">
-        <v>1.129621899936978</v>
+        <v>0.4885918077968086</v>
       </c>
       <c r="I3">
-        <v>1.240440210805446</v>
+        <v>0.6515829524209664</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.304713784161095</v>
+        <v>3.179804065838539</v>
       </c>
       <c r="L3">
-        <v>0.1442383484674679</v>
+        <v>0.06081131370732251</v>
       </c>
       <c r="M3">
-        <v>0.4015921378362961</v>
+        <v>0.6785477278768326</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1507170015957655</v>
+        <v>0.08812494192865472</v>
       </c>
       <c r="D4">
-        <v>0.05807732462367809</v>
+        <v>0.04350256691400745</v>
       </c>
       <c r="E4">
-        <v>0.1088113820550465</v>
+        <v>0.05059389670323</v>
       </c>
       <c r="F4">
-        <v>1.271799893731924</v>
+        <v>0.7229143021881583</v>
       </c>
       <c r="G4">
-        <v>1.153443252540413</v>
+        <v>0.6550745429344147</v>
       </c>
       <c r="H4">
-        <v>1.136100161980764</v>
+        <v>0.4864891926460899</v>
       </c>
       <c r="I4">
-        <v>1.24515460087985</v>
+        <v>0.6364028566532696</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.216251273249554</v>
+        <v>2.883630910497232</v>
       </c>
       <c r="L4">
-        <v>0.1449028153421743</v>
+        <v>0.06036604360196307</v>
       </c>
       <c r="M4">
-        <v>0.3843226260682542</v>
+        <v>0.6166714572361727</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1502799412720037</v>
+        <v>0.08583203098217496</v>
       </c>
       <c r="D5">
-        <v>0.05799364817528385</v>
+        <v>0.04327014287833819</v>
       </c>
       <c r="E5">
-        <v>0.1088491149013979</v>
+        <v>0.04994838840143956</v>
       </c>
       <c r="F5">
-        <v>1.273269550453314</v>
+        <v>0.7135328486176107</v>
       </c>
       <c r="G5">
-        <v>1.15552706596408</v>
+        <v>0.6480850358653498</v>
       </c>
       <c r="H5">
-        <v>1.13891348436465</v>
+        <v>0.4859685899266992</v>
       </c>
       <c r="I5">
-        <v>1.247299249012059</v>
+        <v>0.6306947156841574</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.180227891728435</v>
+        <v>2.763204935135121</v>
       </c>
       <c r="L5">
-        <v>0.145192467651885</v>
+        <v>0.06021786194071765</v>
       </c>
       <c r="M5">
-        <v>0.3773144080567548</v>
+        <v>0.5915490985656575</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.150208162453616</v>
+        <v>0.08545249400764021</v>
       </c>
       <c r="D6">
-        <v>0.05797989678565685</v>
+        <v>0.04323188460001148</v>
       </c>
       <c r="E6">
-        <v>0.1088561342426413</v>
+        <v>0.04984242374669279</v>
       </c>
       <c r="F6">
-        <v>1.273528541913052</v>
+        <v>0.7120076967823792</v>
       </c>
       <c r="G6">
-        <v>1.155888011854557</v>
+        <v>0.6469588357077214</v>
       </c>
       <c r="H6">
-        <v>1.139391099117589</v>
+        <v>0.4859019022270985</v>
       </c>
       <c r="I6">
-        <v>1.247668850964779</v>
+        <v>0.6297748399883503</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.174247836415816</v>
+        <v>2.743222379936896</v>
       </c>
       <c r="L6">
-        <v>0.1452417039658123</v>
+        <v>0.06019521616123669</v>
       </c>
       <c r="M6">
-        <v>0.3761524728209622</v>
+        <v>0.5873826703613716</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1507110539996432</v>
+        <v>0.0880939374407177</v>
       </c>
       <c r="D7">
-        <v>0.05807618655881441</v>
+        <v>0.04349940963795618</v>
       </c>
       <c r="E7">
-        <v>0.1088118404012466</v>
+        <v>0.05058510850077802</v>
       </c>
       <c r="F7">
-        <v>1.271818711008663</v>
+        <v>0.722785568765147</v>
       </c>
       <c r="G7">
-        <v>1.153470354168547</v>
+        <v>0.6549779477765583</v>
       </c>
       <c r="H7">
-        <v>1.136137401748641</v>
+        <v>0.4864808352269989</v>
       </c>
       <c r="I7">
-        <v>1.245182620061463</v>
+        <v>0.6363239809741401</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.215765342990153</v>
+        <v>2.882005815572654</v>
       </c>
       <c r="L7">
-        <v>0.1449066452792245</v>
+        <v>0.06036391272665043</v>
       </c>
       <c r="M7">
-        <v>0.3842279920277534</v>
+        <v>0.6163322947505847</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1530454168845381</v>
+        <v>0.09993666605851104</v>
       </c>
       <c r="D8">
-        <v>0.05852175326889508</v>
+        <v>0.04473132554898029</v>
       </c>
       <c r="E8">
-        <v>0.1087259172181021</v>
+        <v>0.05404848868681178</v>
       </c>
       <c r="F8">
-        <v>1.266451934704186</v>
+        <v>0.7753602353970166</v>
       </c>
       <c r="G8">
-        <v>1.144977546651091</v>
+        <v>0.6956546854854935</v>
       </c>
       <c r="H8">
-        <v>1.123302296734337</v>
+        <v>0.4920396237305766</v>
       </c>
       <c r="I8">
-        <v>1.236174806543978</v>
+        <v>0.6695053195526199</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.399195918769124</v>
+        <v>3.496965762781826</v>
       </c>
       <c r="L8">
-        <v>0.1435938573075006</v>
+        <v>0.06140513833536687</v>
       </c>
       <c r="M8">
-        <v>0.4201195911521864</v>
+        <v>0.7449405454200075</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1580347222860468</v>
+        <v>0.1239616888086346</v>
       </c>
       <c r="D9">
-        <v>0.05946866966748843</v>
+        <v>0.04736089550540612</v>
       </c>
       <c r="E9">
-        <v>0.1089508875556788</v>
+        <v>0.06159846080423037</v>
       </c>
       <c r="F9">
-        <v>1.263800851630123</v>
+        <v>0.899322961545991</v>
       </c>
       <c r="G9">
-        <v>1.136198355918623</v>
+        <v>0.7974715645538737</v>
       </c>
       <c r="H9">
-        <v>1.103621963195806</v>
+        <v>0.5151229646286311</v>
       </c>
       <c r="I9">
-        <v>1.225600093071016</v>
+        <v>0.7522446427093001</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.759633742078279</v>
+        <v>4.717287571218492</v>
       </c>
       <c r="L9">
-        <v>0.1416160724770137</v>
+        <v>0.06463890886699275</v>
       </c>
       <c r="M9">
-        <v>0.4914110271719565</v>
+        <v>1.001464735966941</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1619498293260619</v>
+        <v>0.1422400879070977</v>
       </c>
       <c r="D10">
-        <v>0.06020816840232612</v>
+        <v>0.04945580685745909</v>
       </c>
       <c r="E10">
-        <v>0.1093560819900645</v>
+        <v>0.06770134374765391</v>
       </c>
       <c r="F10">
-        <v>1.266696508888771</v>
+        <v>1.006083409988079</v>
       </c>
       <c r="G10">
-        <v>1.134602486366504</v>
+        <v>0.8888883109895858</v>
       </c>
       <c r="H10">
-        <v>1.09252506986644</v>
+        <v>0.5409551991172918</v>
       </c>
       <c r="I10">
-        <v>1.222185466704666</v>
+        <v>0.8261886731912753</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.024867823284922</v>
+        <v>5.628267592943246</v>
       </c>
       <c r="L10">
-        <v>0.1405275946251727</v>
+        <v>0.06787178117811621</v>
       </c>
       <c r="M10">
-        <v>0.544339231139702</v>
+        <v>1.193884598045216</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1637848162691284</v>
+        <v>0.1507258827564328</v>
       </c>
       <c r="D11">
-        <v>0.0605539454587074</v>
+        <v>0.05045278049303903</v>
       </c>
       <c r="E11">
-        <v>0.1095925348392441</v>
+        <v>0.07062148688728698</v>
       </c>
       <c r="F11">
-        <v>1.269075088422397</v>
+        <v>1.058790149272127</v>
       </c>
       <c r="G11">
-        <v>1.134942110039702</v>
+        <v>0.9348675327210287</v>
       </c>
       <c r="H11">
-        <v>1.088210368319963</v>
+        <v>0.5549916708841636</v>
       </c>
       <c r="I11">
-        <v>1.221584775778467</v>
+        <v>0.8632735104835305</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.145617933554888</v>
+        <v>6.047230062246399</v>
       </c>
       <c r="L11">
-        <v>0.1401117927266711</v>
+        <v>0.06956076022725455</v>
       </c>
       <c r="M11">
-        <v>0.5685369485545095</v>
+        <v>1.282606538078767</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1644874085830423</v>
+        <v>0.1539669431297312</v>
       </c>
       <c r="D12">
-        <v>0.06068621673274066</v>
+        <v>0.05083745987454336</v>
       </c>
       <c r="E12">
-        <v>0.109689568435428</v>
+        <v>0.0717500896112746</v>
       </c>
       <c r="F12">
-        <v>1.270129150674364</v>
+        <v>1.079412295056528</v>
       </c>
       <c r="G12">
-        <v>1.135224862146515</v>
+        <v>0.9529833745625496</v>
       </c>
       <c r="H12">
-        <v>1.08668223831414</v>
+        <v>0.5606688914679552</v>
       </c>
       <c r="I12">
-        <v>1.221494856183206</v>
+        <v>0.8778670502089696</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.191355518348416</v>
+        <v>6.206664153557767</v>
       </c>
       <c r="L12">
-        <v>0.1399657663520841</v>
+        <v>0.07023471179930851</v>
       </c>
       <c r="M12">
-        <v>0.5777171726811332</v>
+        <v>1.316404309516358</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1643357499288811</v>
+        <v>0.1532676392574075</v>
       </c>
       <c r="D13">
-        <v>0.06065767069532058</v>
+        <v>0.05075428016908745</v>
       </c>
       <c r="E13">
-        <v>0.1096683372432068</v>
+        <v>0.07150597455868635</v>
       </c>
       <c r="F13">
-        <v>1.269895307810842</v>
+        <v>1.074940295946476</v>
       </c>
       <c r="G13">
-        <v>1.135157096272678</v>
+        <v>0.9490492325011104</v>
       </c>
       <c r="H13">
-        <v>1.087006640200599</v>
+        <v>0.5594295374906579</v>
       </c>
       <c r="I13">
-        <v>1.221508095504198</v>
+        <v>0.8746986660788707</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.181504592363922</v>
+        <v>6.172290216039528</v>
       </c>
       <c r="L13">
-        <v>0.1399967071574864</v>
+        <v>0.0700879850002849</v>
       </c>
       <c r="M13">
-        <v>0.575739291576653</v>
+        <v>1.309115923143679</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1638424644192185</v>
+        <v>0.1509919532417001</v>
       </c>
       <c r="D14">
-        <v>0.06056480086562743</v>
+        <v>0.05048427996572258</v>
       </c>
       <c r="E14">
-        <v>0.1096003676701542</v>
+        <v>0.07071386776511446</v>
       </c>
       <c r="F14">
-        <v>1.269158729307762</v>
+        <v>1.060473040466164</v>
       </c>
       <c r="G14">
-        <v>1.134962277716795</v>
+        <v>0.9363433713559175</v>
       </c>
       <c r="H14">
-        <v>1.088082526947161</v>
+        <v>0.5554512831035083</v>
       </c>
       <c r="I14">
-        <v>1.221574618136295</v>
+        <v>0.8644627681791235</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.149380556513393</v>
+        <v>6.060330350078971</v>
       </c>
       <c r="L14">
-        <v>0.1400995498952256</v>
+        <v>0.06961549966227665</v>
       </c>
       <c r="M14">
-        <v>0.5692918702954017</v>
+        <v>1.285382897865475</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1635413173207922</v>
+        <v>0.1496017311627895</v>
       </c>
       <c r="D15">
-        <v>0.06050808857041545</v>
+        <v>0.05031985403898886</v>
       </c>
       <c r="E15">
-        <v>0.1095597102357218</v>
+        <v>0.07023171598470768</v>
       </c>
       <c r="F15">
-        <v>1.268727545473595</v>
+        <v>1.051699931350527</v>
       </c>
       <c r="G15">
-        <v>1.134863046940907</v>
+        <v>0.9286546976688044</v>
       </c>
       <c r="H15">
-        <v>1.088755319894219</v>
+        <v>0.5530626652718382</v>
       </c>
       <c r="I15">
-        <v>1.221633294772609</v>
+        <v>0.8582663669572881</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.12970519834164</v>
+        <v>5.991857555059994</v>
       </c>
       <c r="L15">
-        <v>0.1401640329449094</v>
+        <v>0.06933065834375896</v>
       </c>
       <c r="M15">
-        <v>0.565344855042639</v>
+        <v>1.27087280436632</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1618309914616134</v>
+        <v>0.1416892179578184</v>
       </c>
       <c r="D16">
-        <v>0.06018575840355567</v>
+        <v>0.04939160526397046</v>
       </c>
       <c r="E16">
-        <v>0.1093416780202112</v>
+        <v>0.06751357746343345</v>
       </c>
       <c r="F16">
-        <v>1.266562481993219</v>
+        <v>1.002727868850485</v>
       </c>
       <c r="G16">
-        <v>1.134601811636202</v>
+        <v>0.8859779196677948</v>
       </c>
       <c r="H16">
-        <v>1.092821828012973</v>
+        <v>0.5400866384289742</v>
       </c>
       <c r="I16">
-        <v>1.222243940705738</v>
+        <v>0.8238390047905924</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.016978290921031</v>
+        <v>5.600989624677084</v>
       </c>
       <c r="L16">
-        <v>0.1405563665628762</v>
+        <v>0.06776604361230554</v>
       </c>
       <c r="M16">
-        <v>0.5427602556110287</v>
+        <v>1.188112810731681</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.160795559850925</v>
+        <v>0.1368810243272804</v>
       </c>
       <c r="D17">
-        <v>0.05999040954750967</v>
+        <v>0.04883397279049717</v>
       </c>
       <c r="E17">
-        <v>0.1092212721087513</v>
+        <v>0.06588438762136306</v>
       </c>
       <c r="F17">
-        <v>1.265506635391432</v>
+        <v>0.973791833485933</v>
       </c>
       <c r="G17">
-        <v>1.134715125434411</v>
+        <v>0.860971843553088</v>
       </c>
       <c r="H17">
-        <v>1.095504536921183</v>
+        <v>0.5327342327938993</v>
       </c>
       <c r="I17">
-        <v>1.222862944554116</v>
+        <v>0.8036390418551491</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.947847037244912</v>
+        <v>5.362457581831165</v>
       </c>
       <c r="L17">
-        <v>0.1408173872948808</v>
+        <v>0.06686415033149373</v>
       </c>
       <c r="M17">
-        <v>0.5289360019350084</v>
+        <v>1.137667016549074</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1602050906837462</v>
+        <v>0.1341313576940735</v>
       </c>
       <c r="D18">
-        <v>0.05987893336882166</v>
+        <v>0.04851732249684204</v>
       </c>
       <c r="E18">
-        <v>0.1091569244361246</v>
+        <v>0.06496072831228616</v>
       </c>
       <c r="F18">
-        <v>1.264999194217609</v>
+        <v>0.9575339143424344</v>
       </c>
       <c r="G18">
-        <v>1.134880544502451</v>
+        <v>0.8469977622549294</v>
       </c>
       <c r="H18">
-        <v>1.097116566554433</v>
+        <v>0.5287182419138219</v>
       </c>
       <c r="I18">
-        <v>1.223308612543825</v>
+        <v>0.7923414625900591</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.908093475659882</v>
+        <v>5.225680459779596</v>
       </c>
       <c r="L18">
-        <v>0.1409749874247481</v>
+        <v>0.06636576081424295</v>
       </c>
       <c r="M18">
-        <v>0.5209960046211251</v>
+        <v>1.108761914345415</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1600060423428857</v>
+        <v>0.133203005321846</v>
       </c>
       <c r="D19">
-        <v>0.05984134163395538</v>
+        <v>0.04841078845104363</v>
       </c>
       <c r="E19">
-        <v>0.1091359801978022</v>
+        <v>0.06465023476931364</v>
       </c>
       <c r="F19">
-        <v>1.26484451120352</v>
+        <v>0.9520934839602688</v>
       </c>
       <c r="G19">
-        <v>1.134953741760029</v>
+        <v>0.842334481907244</v>
       </c>
       <c r="H19">
-        <v>1.097674214848709</v>
+        <v>0.5273941044902415</v>
       </c>
       <c r="I19">
-        <v>1.22347488563075</v>
+        <v>0.7885698358478308</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.894635174226153</v>
+        <v>5.179438573245022</v>
       </c>
       <c r="L19">
-        <v>0.1410296301947334</v>
+        <v>0.06620042476628996</v>
       </c>
       <c r="M19">
-        <v>0.5183096144093611</v>
+        <v>1.098993176503555</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1609052574648473</v>
+        <v>0.1373911997786337</v>
       </c>
       <c r="D20">
-        <v>0.06001111345840116</v>
+        <v>0.04889290530629609</v>
       </c>
       <c r="E20">
-        <v>0.1092335817208578</v>
+        <v>0.06605641535912454</v>
       </c>
       <c r="F20">
-        <v>1.265608692289362</v>
+        <v>0.9768317745652837</v>
       </c>
       <c r="G20">
-        <v>1.134692681495707</v>
+        <v>0.8635909747539472</v>
       </c>
       <c r="H20">
-        <v>1.095211813883353</v>
+        <v>0.5334946420927338</v>
       </c>
       <c r="I20">
-        <v>1.222787769759876</v>
+        <v>0.8057557716766155</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.955205265252744</v>
+        <v>5.387805354262866</v>
       </c>
       <c r="L20">
-        <v>0.1407888281617033</v>
+        <v>0.06695803104048892</v>
       </c>
       <c r="M20">
-        <v>0.5304064446585102</v>
+        <v>1.143025468851206</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1639871450607586</v>
+        <v>0.1516596000594603</v>
       </c>
       <c r="D21">
-        <v>0.06059204292549225</v>
+        <v>0.05056338451248621</v>
       </c>
       <c r="E21">
-        <v>0.1096201286094889</v>
+        <v>0.07094589185971145</v>
       </c>
       <c r="F21">
-        <v>1.269370912702101</v>
+        <v>1.064703849481518</v>
       </c>
       <c r="G21">
-        <v>1.135015309942645</v>
+        <v>0.9400556539129212</v>
       </c>
       <c r="H21">
-        <v>1.087763640388758</v>
+        <v>0.556609688350278</v>
       </c>
       <c r="I21">
-        <v>1.221551341310843</v>
+        <v>0.8674539014820297</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.158815845685638</v>
+        <v>6.093193370338497</v>
       </c>
       <c r="L21">
-        <v>0.1400690321718443</v>
+        <v>0.06975332202574691</v>
       </c>
       <c r="M21">
-        <v>0.5711851727295425</v>
+        <v>1.292348164037691</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1660463316212315</v>
+        <v>0.1611477973160476</v>
       </c>
       <c r="D22">
-        <v>0.06097947713367802</v>
+        <v>0.05169726001263797</v>
       </c>
       <c r="E22">
-        <v>0.1099164395760042</v>
+        <v>0.0742755235393453</v>
       </c>
       <c r="F22">
-        <v>1.272723896503337</v>
+        <v>1.126035789155551</v>
       </c>
       <c r="G22">
-        <v>1.136125060028093</v>
+        <v>0.9941754365485451</v>
       </c>
       <c r="H22">
-        <v>1.083512383778782</v>
+        <v>0.5738442004709867</v>
       </c>
       <c r="I22">
-        <v>1.221545265998238</v>
+        <v>0.911014313811549</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.291957281579982</v>
+        <v>6.558832731099756</v>
       </c>
       <c r="L22">
-        <v>0.139665228064672</v>
+        <v>0.0717821529611129</v>
       </c>
       <c r="M22">
-        <v>0.5979358400745127</v>
+        <v>1.391125033215218</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1649432011377741</v>
+        <v>0.1560677484911395</v>
       </c>
       <c r="D23">
-        <v>0.06077199070827533</v>
+        <v>0.05108793479116258</v>
       </c>
       <c r="E23">
-        <v>0.1097542966652902</v>
+        <v>0.07248541494817218</v>
       </c>
       <c r="F23">
-        <v>1.270852289929024</v>
+        <v>1.092920477019405</v>
       </c>
       <c r="G23">
-        <v>1.135450214701763</v>
+        <v>0.9648853372308821</v>
       </c>
       <c r="H23">
-        <v>1.085724844517188</v>
+        <v>0.564439239841235</v>
       </c>
       <c r="I23">
-        <v>1.221474939669648</v>
+        <v>0.8874495882670885</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.220891209666433</v>
+        <v>6.309843232531591</v>
       </c>
       <c r="L23">
-        <v>0.1398746437910461</v>
+        <v>0.07067978711448575</v>
       </c>
       <c r="M23">
-        <v>0.5836494873919946</v>
+        <v>1.338286831578174</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1608556481763088</v>
+        <v>0.1371605041253048</v>
       </c>
       <c r="D24">
-        <v>0.06000175062494151</v>
+        <v>0.04886624970441034</v>
       </c>
       <c r="E24">
-        <v>0.1092280013592735</v>
+        <v>0.06597860133498656</v>
       </c>
       <c r="F24">
-        <v>1.265562242227972</v>
+        <v>0.9754562455031959</v>
       </c>
       <c r="G24">
-        <v>1.134702516114245</v>
+        <v>0.8624056180437236</v>
       </c>
       <c r="H24">
-        <v>1.09534393685361</v>
+        <v>0.5331502062903724</v>
       </c>
       <c r="I24">
-        <v>1.222821476612744</v>
+        <v>0.8047978190088116</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.951878638572964</v>
+        <v>5.376344520325858</v>
       </c>
       <c r="L24">
-        <v>0.1408017162734225</v>
+        <v>0.06691552512102561</v>
       </c>
       <c r="M24">
-        <v>0.5297416333462195</v>
+        <v>1.140602613084937</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.156641070554798</v>
+        <v>0.1173629016252562</v>
       </c>
       <c r="D25">
-        <v>0.05920475668520453</v>
+        <v>0.04662352271332537</v>
       </c>
       <c r="E25">
-        <v>0.1088479003459639</v>
+        <v>0.0594656271970706</v>
       </c>
       <c r="F25">
-        <v>1.263670648254958</v>
+        <v>0.8632635726365834</v>
       </c>
       <c r="G25">
-        <v>1.137724762857928</v>
+        <v>0.767256465201541</v>
       </c>
       <c r="H25">
-        <v>1.108356718106677</v>
+        <v>0.5074325413056613</v>
       </c>
       <c r="I25">
-        <v>1.227698477507722</v>
+        <v>0.7277363126200882</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.662050238773872</v>
+        <v>4.385067181400302</v>
       </c>
       <c r="L25">
-        <v>0.1420871539216826</v>
+        <v>0.06362370314868215</v>
       </c>
       <c r="M25">
-        <v>0.4720279430649228</v>
+        <v>0.9314766379729207</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1031949623407229</v>
+        <v>0.03863632939727779</v>
       </c>
       <c r="D2">
-        <v>0.04507851298534149</v>
+        <v>0.1629235326808782</v>
       </c>
       <c r="E2">
-        <v>0.05503500584505794</v>
+        <v>0.2057399159306144</v>
       </c>
       <c r="F2">
-        <v>0.7909160498475103</v>
+        <v>1.435397911352325</v>
       </c>
       <c r="G2">
-        <v>0.7080601594074665</v>
+        <v>1.07860376422677</v>
       </c>
       <c r="H2">
-        <v>0.4943209325930695</v>
+        <v>0.007974798748169726</v>
       </c>
       <c r="I2">
-        <v>0.6796103616833733</v>
+        <v>0.03009559699473607</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6307041373903104</v>
       </c>
       <c r="K2">
-        <v>3.664371325413811</v>
+        <v>0.8633749321075044</v>
       </c>
       <c r="L2">
-        <v>0.06176346676591038</v>
+        <v>0.2890546466107367</v>
       </c>
       <c r="M2">
-        <v>0.7800348188414148</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.557382846915459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,37 +483,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0938024043804262</v>
+        <v>0.03479337420662176</v>
       </c>
       <c r="D3">
-        <v>0.04408699136464733</v>
+        <v>0.1504364110658685</v>
       </c>
       <c r="E3">
-        <v>0.05222900409942</v>
+        <v>0.1864430146291518</v>
       </c>
       <c r="F3">
-        <v>0.7473074343512494</v>
+        <v>1.287907221261761</v>
       </c>
       <c r="G3">
-        <v>0.6736730483621756</v>
+        <v>0.9554244535895293</v>
       </c>
       <c r="H3">
-        <v>0.4885918077968086</v>
+        <v>0.005288617465882162</v>
       </c>
       <c r="I3">
-        <v>0.6515829524209664</v>
+        <v>0.02441696358591106</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5747148519939742</v>
       </c>
       <c r="K3">
-        <v>3.179804065838539</v>
+        <v>0.7726627301331916</v>
       </c>
       <c r="L3">
-        <v>0.06081131370732251</v>
+        <v>0.2596011457818435</v>
       </c>
       <c r="M3">
-        <v>0.6785477278768326</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3.178772751025463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,37 +536,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08812494192865472</v>
+        <v>0.03236162084375138</v>
       </c>
       <c r="D4">
-        <v>0.04350256691400745</v>
+        <v>0.1428304376230187</v>
       </c>
       <c r="E4">
-        <v>0.05059389670323</v>
+        <v>0.174594886742554</v>
       </c>
       <c r="F4">
-        <v>0.7229143021881583</v>
+        <v>1.197611992052643</v>
       </c>
       <c r="G4">
-        <v>0.6550745429344147</v>
+        <v>0.8799184689592607</v>
       </c>
       <c r="H4">
-        <v>0.4864891926460899</v>
+        <v>0.003864013712004954</v>
       </c>
       <c r="I4">
-        <v>0.6364028566532696</v>
+        <v>0.02113032789320179</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5404660176074145</v>
       </c>
       <c r="K4">
-        <v>2.883630910497232</v>
+        <v>0.7168892374533016</v>
       </c>
       <c r="L4">
-        <v>0.06036604360196307</v>
+        <v>0.2414821918136525</v>
       </c>
       <c r="M4">
-        <v>0.6166714572361727</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.946831907463405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,37 +589,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08583203098217496</v>
+        <v>0.0311625211281843</v>
       </c>
       <c r="D5">
-        <v>0.04327014287833819</v>
+        <v>0.1398220369348522</v>
       </c>
       <c r="E5">
-        <v>0.04994838840143956</v>
+        <v>0.1697828515939115</v>
       </c>
       <c r="F5">
-        <v>0.7135328486176107</v>
+        <v>1.160052534355899</v>
       </c>
       <c r="G5">
-        <v>0.6480850358653498</v>
+        <v>0.8483381493233964</v>
       </c>
       <c r="H5">
-        <v>0.4859685899266992</v>
+        <v>0.003333330617505514</v>
       </c>
       <c r="I5">
-        <v>0.6306947156841574</v>
+        <v>0.01986755221924108</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.526121823309893</v>
       </c>
       <c r="K5">
-        <v>2.763204935135121</v>
+        <v>0.6931838482162718</v>
       </c>
       <c r="L5">
-        <v>0.06021786194071765</v>
+        <v>0.2340523372150329</v>
       </c>
       <c r="M5">
-        <v>0.5915490985656575</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.849780754626408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08545249400764021</v>
+        <v>0.03073227742588003</v>
       </c>
       <c r="D6">
-        <v>0.04323188460001148</v>
+        <v>0.1394179663285726</v>
       </c>
       <c r="E6">
-        <v>0.04984242374669279</v>
+        <v>0.1690059255043934</v>
       </c>
       <c r="F6">
-        <v>0.7120076967823792</v>
+        <v>1.152819187146079</v>
       </c>
       <c r="G6">
-        <v>0.6469588357077214</v>
+        <v>0.8420773483881021</v>
       </c>
       <c r="H6">
-        <v>0.4859019022270985</v>
+        <v>0.003244902336552391</v>
       </c>
       <c r="I6">
-        <v>0.6297748399883503</v>
+        <v>0.01970577544126861</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5232337406544048</v>
       </c>
       <c r="K6">
-        <v>2.743222379936896</v>
+        <v>0.6880810892202405</v>
       </c>
       <c r="L6">
-        <v>0.06019521616123669</v>
+        <v>0.2327756251845656</v>
       </c>
       <c r="M6">
-        <v>0.5873826703613716</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.830449627097323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,37 +695,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0880939374407177</v>
+        <v>0.03171167908005401</v>
       </c>
       <c r="D7">
-        <v>0.04349940963795618</v>
+        <v>0.1430488775566161</v>
       </c>
       <c r="E7">
-        <v>0.05058510850077802</v>
+        <v>0.1745911228789438</v>
       </c>
       <c r="F7">
-        <v>0.722785568765147</v>
+        <v>1.194368175416471</v>
       </c>
       <c r="G7">
-        <v>0.6549779477765583</v>
+        <v>0.8767037675296905</v>
       </c>
       <c r="H7">
-        <v>0.4864808352269989</v>
+        <v>0.0038465574937393</v>
       </c>
       <c r="I7">
-        <v>0.6363239809741401</v>
+        <v>0.02122146290527471</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5388822758473282</v>
       </c>
       <c r="K7">
-        <v>2.882005815572654</v>
+        <v>0.7133783695555493</v>
       </c>
       <c r="L7">
-        <v>0.06036391272665043</v>
+        <v>0.2412665657070221</v>
       </c>
       <c r="M7">
-        <v>0.6163322947505847</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.936700236316398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,37 +748,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09993666605851104</v>
+        <v>0.03647428449457735</v>
       </c>
       <c r="D8">
-        <v>0.04473132554898029</v>
+        <v>0.158949745395546</v>
       </c>
       <c r="E8">
-        <v>0.05404848868681178</v>
+        <v>0.1991669867221262</v>
       </c>
       <c r="F8">
-        <v>0.7753602353970166</v>
+        <v>1.380827198761395</v>
       </c>
       <c r="G8">
-        <v>0.6956546854854935</v>
+        <v>1.032372415228537</v>
       </c>
       <c r="H8">
-        <v>0.4920396237305766</v>
+        <v>0.006982228044071892</v>
       </c>
       <c r="I8">
-        <v>0.6695053195526199</v>
+        <v>0.02820751897738916</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6095156198090592</v>
       </c>
       <c r="K8">
-        <v>3.496965762781826</v>
+        <v>0.8278481006225391</v>
       </c>
       <c r="L8">
-        <v>0.06140513833536687</v>
+        <v>0.2787502857161002</v>
       </c>
       <c r="M8">
-        <v>0.7449405454200075</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3.414928372572518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,37 +801,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1239616888086346</v>
+        <v>0.04641565959613558</v>
       </c>
       <c r="D9">
-        <v>0.04736089550540612</v>
+        <v>0.190222214834975</v>
       </c>
       <c r="E9">
-        <v>0.06159846080423037</v>
+        <v>0.2473497715540489</v>
       </c>
       <c r="F9">
-        <v>0.899322961545991</v>
+        <v>1.754172096806755</v>
       </c>
       <c r="G9">
-        <v>0.7974715645538737</v>
+        <v>1.344234451255886</v>
       </c>
       <c r="H9">
-        <v>0.5151229646286311</v>
+        <v>0.01512257932029959</v>
       </c>
       <c r="I9">
-        <v>0.7522446427093001</v>
+        <v>0.043584996733256</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7518042296857175</v>
       </c>
       <c r="K9">
-        <v>4.717287571218492</v>
+        <v>1.057791532826016</v>
       </c>
       <c r="L9">
-        <v>0.06463890886699275</v>
+        <v>0.3523399229077029</v>
       </c>
       <c r="M9">
-        <v>1.001464735966941</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4.374537722984201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,37 +854,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1422400879070977</v>
+        <v>0.05331939824868215</v>
       </c>
       <c r="D10">
-        <v>0.04945580685745909</v>
+        <v>0.20835678305464</v>
       </c>
       <c r="E10">
-        <v>0.06770134374765391</v>
+        <v>0.2730225004308835</v>
       </c>
       <c r="F10">
-        <v>1.006083409988079</v>
+        <v>2.007374795170676</v>
       </c>
       <c r="G10">
-        <v>0.8888883109895858</v>
+        <v>1.559967264548874</v>
       </c>
       <c r="H10">
-        <v>0.5409551991172918</v>
+        <v>0.02226620202504126</v>
       </c>
       <c r="I10">
-        <v>0.8261886731912753</v>
+        <v>0.05607692318918289</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8500368101289837</v>
       </c>
       <c r="K10">
-        <v>5.628267592943246</v>
+        <v>1.216114099212561</v>
       </c>
       <c r="L10">
-        <v>0.06787178117811621</v>
+        <v>0.3901558707406565</v>
       </c>
       <c r="M10">
-        <v>1.193884598045216</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5.037918191419919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1507258827564328</v>
+        <v>0.05758020937536656</v>
       </c>
       <c r="D11">
-        <v>0.05045278049303903</v>
+        <v>0.1728498052415262</v>
       </c>
       <c r="E11">
-        <v>0.07062148688728698</v>
+        <v>0.2061694217057024</v>
       </c>
       <c r="F11">
-        <v>1.058790149272127</v>
+        <v>1.925723988471148</v>
       </c>
       <c r="G11">
-        <v>0.9348675327210287</v>
+        <v>1.534773313275934</v>
       </c>
       <c r="H11">
-        <v>0.5549916708841636</v>
+        <v>0.04061369891373801</v>
       </c>
       <c r="I11">
-        <v>0.8632735104835305</v>
+        <v>0.05986846857067807</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.834077364536455</v>
       </c>
       <c r="K11">
-        <v>6.047230062246399</v>
+        <v>1.202455908476367</v>
       </c>
       <c r="L11">
-        <v>0.06956076022725455</v>
+        <v>0.2804129842086951</v>
       </c>
       <c r="M11">
-        <v>1.282606538078767</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4.951272246614565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,37 +960,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1539669431297312</v>
+        <v>0.06119363645554188</v>
       </c>
       <c r="D12">
-        <v>0.05083745987454336</v>
+        <v>0.1424361593474828</v>
       </c>
       <c r="E12">
-        <v>0.0717500896112746</v>
+        <v>0.1548373268956951</v>
       </c>
       <c r="F12">
-        <v>1.079412295056528</v>
+        <v>1.808527686433578</v>
       </c>
       <c r="G12">
-        <v>0.9529833745625496</v>
+        <v>1.472003262410368</v>
       </c>
       <c r="H12">
-        <v>0.5606688914679552</v>
+        <v>0.0782814557793472</v>
       </c>
       <c r="I12">
-        <v>0.8778670502089696</v>
+        <v>0.06026239534418742</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8016760346678495</v>
       </c>
       <c r="K12">
-        <v>6.206664153557767</v>
+        <v>1.162140595447184</v>
       </c>
       <c r="L12">
-        <v>0.07023471179930851</v>
+        <v>0.2002530253199311</v>
       </c>
       <c r="M12">
-        <v>1.316404309516358</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.750446547054366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1532676392574075</v>
+        <v>0.06347172871161177</v>
       </c>
       <c r="D13">
-        <v>0.05075428016908745</v>
+        <v>0.1147180021732126</v>
       </c>
       <c r="E13">
-        <v>0.07150597455868635</v>
+        <v>0.112766103933339</v>
       </c>
       <c r="F13">
-        <v>1.074940295946476</v>
+        <v>1.653574280502212</v>
       </c>
       <c r="G13">
-        <v>0.9490492325011104</v>
+        <v>1.372588898416751</v>
       </c>
       <c r="H13">
-        <v>0.5594295374906579</v>
+        <v>0.1322827171825907</v>
       </c>
       <c r="I13">
-        <v>0.8746986660788707</v>
+        <v>0.05818611895565784</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7526758056765175</v>
       </c>
       <c r="K13">
-        <v>6.172290216039528</v>
+        <v>1.094104500649095</v>
       </c>
       <c r="L13">
-        <v>0.0700879850002849</v>
+        <v>0.1383019048160889</v>
       </c>
       <c r="M13">
-        <v>1.309115923143679</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4.437115140260801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,37 +1066,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1509919532417001</v>
+        <v>0.06425691128362843</v>
       </c>
       <c r="D14">
-        <v>0.05048427996572258</v>
+        <v>0.09725120707046386</v>
       </c>
       <c r="E14">
-        <v>0.07071386776511446</v>
+        <v>0.08915391559346908</v>
       </c>
       <c r="F14">
-        <v>1.060473040466164</v>
+        <v>1.528568056046637</v>
       </c>
       <c r="G14">
-        <v>0.9363433713559175</v>
+        <v>1.286336288771565</v>
       </c>
       <c r="H14">
-        <v>0.5554512831035083</v>
+        <v>0.1801486642790024</v>
       </c>
       <c r="I14">
-        <v>0.8644627681791235</v>
+        <v>0.055715613720416</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7107841735705165</v>
       </c>
       <c r="K14">
-        <v>6.060330350078971</v>
+        <v>1.033455441851132</v>
       </c>
       <c r="L14">
-        <v>0.06961549966227665</v>
+        <v>0.1061772097636222</v>
       </c>
       <c r="M14">
-        <v>1.285382897865475</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4.166533482743148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1496017311627895</v>
+        <v>0.06377644414022399</v>
       </c>
       <c r="D15">
-        <v>0.05031985403898886</v>
+        <v>0.0931678050819329</v>
       </c>
       <c r="E15">
-        <v>0.07023171598470768</v>
+        <v>0.08405496780433097</v>
       </c>
       <c r="F15">
-        <v>1.051699931350527</v>
+        <v>1.489312064285798</v>
       </c>
       <c r="G15">
-        <v>0.9286546976688044</v>
+        <v>1.25674310950302</v>
       </c>
       <c r="H15">
-        <v>0.5530626652718382</v>
+        <v>0.1920429417390039</v>
       </c>
       <c r="I15">
-        <v>0.8582663669572881</v>
+        <v>0.0546488158859475</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6966777961635557</v>
       </c>
       <c r="K15">
-        <v>5.991857555059994</v>
+        <v>1.011784450193929</v>
       </c>
       <c r="L15">
-        <v>0.06933065834375896</v>
+        <v>0.09965445245130056</v>
       </c>
       <c r="M15">
-        <v>1.27087280436632</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4.074241450258853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,37 +1172,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1416892179578184</v>
+        <v>0.05982600139730465</v>
       </c>
       <c r="D16">
-        <v>0.04939160526397046</v>
+        <v>0.09185286483000255</v>
       </c>
       <c r="E16">
-        <v>0.06751357746343345</v>
+        <v>0.08290204689370206</v>
       </c>
       <c r="F16">
-        <v>1.002727868850485</v>
+        <v>1.414143374866441</v>
       </c>
       <c r="G16">
-        <v>0.8859779196677948</v>
+        <v>1.184791697596978</v>
       </c>
       <c r="H16">
-        <v>0.5400866384289742</v>
+        <v>0.176553381881476</v>
       </c>
       <c r="I16">
-        <v>0.8238390047905924</v>
+        <v>0.04973064981908681</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6645463235347506</v>
       </c>
       <c r="K16">
-        <v>5.600989624677084</v>
+        <v>0.9571645007122243</v>
       </c>
       <c r="L16">
-        <v>0.06776604361230554</v>
+        <v>0.09802733496117</v>
       </c>
       <c r="M16">
-        <v>1.188112810731681</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3.854273454665531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,37 +1225,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1368810243272804</v>
+        <v>0.0563554887193547</v>
       </c>
       <c r="D17">
-        <v>0.04883397279049717</v>
+        <v>0.09968399680493434</v>
       </c>
       <c r="E17">
-        <v>0.06588438762136306</v>
+        <v>0.09340124577344255</v>
       </c>
       <c r="F17">
-        <v>0.973791833485933</v>
+        <v>1.422055899040586</v>
       </c>
       <c r="G17">
-        <v>0.860971843553088</v>
+        <v>1.174982255015379</v>
       </c>
       <c r="H17">
-        <v>0.5327342327938993</v>
+        <v>0.1374462939103154</v>
       </c>
       <c r="I17">
-        <v>0.8036390418551491</v>
+        <v>0.04729336961289388</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6619835065770019</v>
       </c>
       <c r="K17">
-        <v>5.362457581831165</v>
+        <v>0.947160081767791</v>
       </c>
       <c r="L17">
-        <v>0.06686415033149373</v>
+        <v>0.1116763581828799</v>
       </c>
       <c r="M17">
-        <v>1.137667016549074</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3.82800011936996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,37 +1278,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1341313576940735</v>
+        <v>0.05371528642115209</v>
       </c>
       <c r="D18">
-        <v>0.04851732249684204</v>
+        <v>0.1181074186712436</v>
       </c>
       <c r="E18">
-        <v>0.06496072831228616</v>
+        <v>0.1204353649860437</v>
       </c>
       <c r="F18">
-        <v>0.9575339143424344</v>
+        <v>1.505433787927515</v>
       </c>
       <c r="G18">
-        <v>0.8469977622549294</v>
+        <v>1.21983011906525</v>
       </c>
       <c r="H18">
-        <v>0.5287182419138219</v>
+        <v>0.08460576249986929</v>
       </c>
       <c r="I18">
-        <v>0.7923414625900591</v>
+        <v>0.04651679073975767</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6856221206168129</v>
       </c>
       <c r="K18">
-        <v>5.225680459779596</v>
+        <v>0.9769179504573771</v>
       </c>
       <c r="L18">
-        <v>0.06636576081424295</v>
+        <v>0.1501690105922009</v>
       </c>
       <c r="M18">
-        <v>1.108761914345415</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3.972490421179032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,37 +1331,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.133203005321846</v>
+        <v>0.05076138994331814</v>
       </c>
       <c r="D19">
-        <v>0.04841078845104363</v>
+        <v>0.1471288779073348</v>
       </c>
       <c r="E19">
-        <v>0.06465023476931364</v>
+        <v>0.1670364578054588</v>
       </c>
       <c r="F19">
-        <v>0.9520934839602688</v>
+        <v>1.641482794337264</v>
       </c>
       <c r="G19">
-        <v>0.842334481907244</v>
+        <v>1.301429917366391</v>
       </c>
       <c r="H19">
-        <v>0.5273941044902415</v>
+        <v>0.04077628458532701</v>
       </c>
       <c r="I19">
-        <v>0.7885698358478308</v>
+        <v>0.04750370241890245</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7265061440348859</v>
       </c>
       <c r="K19">
-        <v>5.179438573245022</v>
+        <v>1.03124882019452</v>
       </c>
       <c r="L19">
-        <v>0.06620042476628996</v>
+        <v>0.2211118311825047</v>
       </c>
       <c r="M19">
-        <v>1.098993176503555</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>4.231039096430607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,37 +1384,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1373911997786337</v>
+        <v>0.04951278227667899</v>
       </c>
       <c r="D20">
-        <v>0.04889290530629609</v>
+        <v>0.204159475467975</v>
       </c>
       <c r="E20">
-        <v>0.06605641535912454</v>
+        <v>0.2660457265964098</v>
       </c>
       <c r="F20">
-        <v>0.9768317745652837</v>
+        <v>1.931037155715345</v>
       </c>
       <c r="G20">
-        <v>0.8635909747539472</v>
+        <v>1.493682322270814</v>
       </c>
       <c r="H20">
-        <v>0.5334946420927338</v>
+        <v>0.02018575747529461</v>
       </c>
       <c r="I20">
-        <v>0.8057557716766155</v>
+        <v>0.05301417989918722</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8194503952375669</v>
       </c>
       <c r="K20">
-        <v>5.387805354262866</v>
+        <v>1.163933466824915</v>
       </c>
       <c r="L20">
-        <v>0.06695803104048892</v>
+        <v>0.37916747415629</v>
       </c>
       <c r="M20">
-        <v>1.143025468851206</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>4.833267889973854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1516596000594603</v>
+        <v>0.05478925445862615</v>
       </c>
       <c r="D21">
-        <v>0.05056338451248621</v>
+        <v>0.22646423541876</v>
       </c>
       <c r="E21">
-        <v>0.07094589185971145</v>
+        <v>0.3012217099851284</v>
       </c>
       <c r="F21">
-        <v>1.064703849481518</v>
+        <v>2.162778148541875</v>
       </c>
       <c r="G21">
-        <v>0.9400556539129212</v>
+        <v>1.683058224684629</v>
       </c>
       <c r="H21">
-        <v>0.556609688350278</v>
+        <v>0.02668460907504144</v>
       </c>
       <c r="I21">
-        <v>0.8674539014820297</v>
+        <v>0.06349971958930301</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.9066287324678797</v>
       </c>
       <c r="K21">
-        <v>6.093193370338497</v>
+        <v>1.302042051201369</v>
       </c>
       <c r="L21">
-        <v>0.06975332202574691</v>
+        <v>0.4336166581482388</v>
       </c>
       <c r="M21">
-        <v>1.292348164037691</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5.417525095917483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,37 +1490,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1611477973160476</v>
+        <v>0.05914148402387553</v>
       </c>
       <c r="D22">
-        <v>0.05169726001263797</v>
+        <v>0.2380474438527358</v>
       </c>
       <c r="E22">
-        <v>0.0742755235393453</v>
+        <v>0.3191417801157215</v>
       </c>
       <c r="F22">
-        <v>1.126035789155551</v>
+        <v>2.307388350197229</v>
       </c>
       <c r="G22">
-        <v>0.9941754365485451</v>
+        <v>1.804223258597347</v>
       </c>
       <c r="H22">
-        <v>0.5738442004709867</v>
+        <v>0.03115953274935501</v>
       </c>
       <c r="I22">
-        <v>0.911014313811549</v>
+        <v>0.07045212812989998</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.962378135681206</v>
       </c>
       <c r="K22">
-        <v>6.558832731099756</v>
+        <v>1.392098779327995</v>
       </c>
       <c r="L22">
-        <v>0.0717821529611129</v>
+        <v>0.4611500707501506</v>
       </c>
       <c r="M22">
-        <v>1.391125033215218</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5.79127458140988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1560677484911395</v>
+        <v>0.05758518247567679</v>
       </c>
       <c r="D23">
-        <v>0.05108793479116258</v>
+        <v>0.2315380248179792</v>
       </c>
       <c r="E23">
-        <v>0.07248541494817218</v>
+        <v>0.309493852353512</v>
       </c>
       <c r="F23">
-        <v>1.092920477019405</v>
+        <v>2.233467175640754</v>
       </c>
       <c r="G23">
-        <v>0.9648853372308821</v>
+        <v>1.742909027259145</v>
       </c>
       <c r="H23">
-        <v>0.564439239841235</v>
+        <v>0.02876522766286538</v>
       </c>
       <c r="I23">
-        <v>0.8874495882670885</v>
+        <v>0.06657910567516012</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9342805033828654</v>
       </c>
       <c r="K23">
-        <v>6.309843232531591</v>
+        <v>1.347902982976805</v>
       </c>
       <c r="L23">
-        <v>0.07067978711448575</v>
+        <v>0.4465875659221012</v>
       </c>
       <c r="M23">
-        <v>1.338286831578174</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5.602376031992037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,37 +1596,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1371605041253048</v>
+        <v>0.05041016564535994</v>
       </c>
       <c r="D24">
-        <v>0.04886624970441034</v>
+        <v>0.2076120659097427</v>
       </c>
       <c r="E24">
-        <v>0.06597860133498656</v>
+        <v>0.2732461872940988</v>
       </c>
       <c r="F24">
-        <v>0.9754562455031959</v>
+        <v>1.949984680502112</v>
       </c>
       <c r="G24">
-        <v>0.8624056180437236</v>
+        <v>1.50661983039825</v>
       </c>
       <c r="H24">
-        <v>0.5331502062903724</v>
+        <v>0.02036877361960898</v>
       </c>
       <c r="I24">
-        <v>0.8047978190088116</v>
+        <v>0.05283536005207345</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8259260185078006</v>
       </c>
       <c r="K24">
-        <v>5.376344520325858</v>
+        <v>1.174906790523565</v>
       </c>
       <c r="L24">
-        <v>0.06691552512102561</v>
+        <v>0.3914154387425128</v>
       </c>
       <c r="M24">
-        <v>1.140602613084937</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4.874245777457645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1173629016252562</v>
+        <v>0.04261813540998105</v>
       </c>
       <c r="D25">
-        <v>0.04662352271332537</v>
+        <v>0.1821687372456324</v>
       </c>
       <c r="E25">
-        <v>0.0594656271970706</v>
+        <v>0.2344031856351378</v>
       </c>
       <c r="F25">
-        <v>0.8632635726365834</v>
+        <v>1.647737255810952</v>
       </c>
       <c r="G25">
-        <v>0.767256465201541</v>
+        <v>1.254471875475161</v>
       </c>
       <c r="H25">
-        <v>0.5074325413056613</v>
+        <v>0.01265215390070595</v>
       </c>
       <c r="I25">
-        <v>0.7277363126200882</v>
+        <v>0.03937286478085777</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7105834199863352</v>
       </c>
       <c r="K25">
-        <v>4.385067181400302</v>
+        <v>0.9896935330457666</v>
       </c>
       <c r="L25">
-        <v>0.06362370314868215</v>
+        <v>0.3322099961374363</v>
       </c>
       <c r="M25">
-        <v>0.9314766379729207</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4.097798137175516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,40 +436,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03863632939727779</v>
+        <v>0.02125830473790291</v>
       </c>
       <c r="D2">
-        <v>0.1629235326808782</v>
+        <v>0.1741672767687987</v>
       </c>
       <c r="E2">
-        <v>0.2057399159306144</v>
+        <v>0.2067488973274578</v>
       </c>
       <c r="F2">
-        <v>1.435397911352325</v>
+        <v>1.300583393392174</v>
       </c>
       <c r="G2">
-        <v>1.07860376422677</v>
+        <v>0.9199787852519847</v>
       </c>
       <c r="H2">
-        <v>0.007974798748169726</v>
+        <v>0.00656845589354027</v>
       </c>
       <c r="I2">
-        <v>0.03009559699473607</v>
+        <v>0.02493762166274038</v>
       </c>
       <c r="J2">
-        <v>0.6307041373903104</v>
+        <v>0.6179929060079559</v>
       </c>
       <c r="K2">
-        <v>0.8633749321075044</v>
+        <v>0.7086101060186323</v>
       </c>
       <c r="L2">
-        <v>0.2890546466107367</v>
+        <v>0.3428709933405756</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2187624777585242</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2806815537295364</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,10 +478,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.557382846915459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3.126608907903403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,40 +495,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03479337420662176</v>
+        <v>0.0191002032909644</v>
       </c>
       <c r="D3">
-        <v>0.1504364110658685</v>
+        <v>0.1599231013112927</v>
       </c>
       <c r="E3">
-        <v>0.1864430146291518</v>
+        <v>0.1873350535536282</v>
       </c>
       <c r="F3">
-        <v>1.287907221261761</v>
+        <v>1.174543581698018</v>
       </c>
       <c r="G3">
-        <v>0.9554244535895293</v>
+        <v>0.8184077884026095</v>
       </c>
       <c r="H3">
-        <v>0.005288617465882162</v>
+        <v>0.004315179410874559</v>
       </c>
       <c r="I3">
-        <v>0.02441696358591106</v>
+        <v>0.02055698144166085</v>
       </c>
       <c r="J3">
-        <v>0.5747148519939742</v>
+        <v>0.5705135115516242</v>
       </c>
       <c r="K3">
-        <v>0.7726627301331916</v>
+        <v>0.6417738787110281</v>
       </c>
       <c r="L3">
-        <v>0.2596011457818435</v>
+        <v>0.3299942521200663</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1814707587055793</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2526202112356231</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,10 +537,16 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.178772751025463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.816550861475207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,40 +554,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03236162084375138</v>
+        <v>0.01780607330964279</v>
       </c>
       <c r="D4">
-        <v>0.1428304376230187</v>
+        <v>0.1512658895677532</v>
       </c>
       <c r="E4">
-        <v>0.174594886742554</v>
+        <v>0.1754184453995684</v>
       </c>
       <c r="F4">
-        <v>1.197611992052643</v>
+        <v>1.097175400785645</v>
       </c>
       <c r="G4">
-        <v>0.8799184689592607</v>
+        <v>0.7560590173976465</v>
       </c>
       <c r="H4">
-        <v>0.003864013712004954</v>
+        <v>0.003124342578122441</v>
       </c>
       <c r="I4">
-        <v>0.02113032789320179</v>
+        <v>0.01801066816762287</v>
       </c>
       <c r="J4">
-        <v>0.5404660176074145</v>
+        <v>0.5412110552183407</v>
       </c>
       <c r="K4">
-        <v>0.7168892374533016</v>
+        <v>0.6004458609767269</v>
       </c>
       <c r="L4">
-        <v>0.2414821918136525</v>
+        <v>0.32164000676228</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1593131613838779</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2353412611046934</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,10 +596,16 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.946831907463405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.625943629913792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,40 +613,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0311625211281843</v>
+        <v>0.0172703427051295</v>
       </c>
       <c r="D5">
-        <v>0.1398220369348522</v>
+        <v>0.1478399171541582</v>
       </c>
       <c r="E5">
-        <v>0.1697828515939115</v>
+        <v>0.170580618298704</v>
       </c>
       <c r="F5">
-        <v>1.160052534355899</v>
+        <v>1.064886781037501</v>
       </c>
       <c r="G5">
-        <v>0.8483381493233964</v>
+        <v>0.7298921644390504</v>
       </c>
       <c r="H5">
-        <v>0.003333330617505514</v>
+        <v>0.002682148342000978</v>
       </c>
       <c r="I5">
-        <v>0.01986755221924108</v>
+        <v>0.01705258740997273</v>
       </c>
       <c r="J5">
-        <v>0.526121823309893</v>
+        <v>0.5288407211754418</v>
       </c>
       <c r="K5">
-        <v>0.6931838482162718</v>
+        <v>0.5826909395533448</v>
       </c>
       <c r="L5">
-        <v>0.2340523372150329</v>
+        <v>0.3177648046533648</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1501893503089349</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2282530926104371</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,10 +655,16 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.849780754626408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.545787613317373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,40 +672,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03073227742588003</v>
+        <v>0.01716643404623452</v>
       </c>
       <c r="D6">
-        <v>0.1394179663285726</v>
+        <v>0.1473717344142287</v>
       </c>
       <c r="E6">
-        <v>0.1690059255043934</v>
+        <v>0.1698006829936034</v>
       </c>
       <c r="F6">
-        <v>1.152819187146079</v>
+        <v>1.058599141773186</v>
       </c>
       <c r="G6">
-        <v>0.8420773483881021</v>
+        <v>0.7246242902863571</v>
       </c>
       <c r="H6">
-        <v>0.003244902336552391</v>
+        <v>0.002608668635302513</v>
       </c>
       <c r="I6">
-        <v>0.01970577544126861</v>
+        <v>0.01696158974228013</v>
       </c>
       <c r="J6">
-        <v>0.5232337406544048</v>
+        <v>0.526306734597938</v>
       </c>
       <c r="K6">
-        <v>0.6880810892202405</v>
+        <v>0.5787138960317293</v>
       </c>
       <c r="L6">
-        <v>0.2327756251845656</v>
+        <v>0.3166776423135005</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1483445227356626</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2270359359747971</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,10 +714,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.830449627097323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.529533260086765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,40 +731,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03171167908005401</v>
+        <v>0.01775818286164021</v>
       </c>
       <c r="D7">
-        <v>0.1430488775566161</v>
+        <v>0.1516600276423574</v>
       </c>
       <c r="E7">
-        <v>0.1745911228789438</v>
+        <v>0.1754588421090091</v>
       </c>
       <c r="F7">
-        <v>1.194368175416471</v>
+        <v>1.092670315763442</v>
       </c>
       <c r="G7">
-        <v>0.8767037675296905</v>
+        <v>0.7582392506366062</v>
       </c>
       <c r="H7">
-        <v>0.0038465574937393</v>
+        <v>0.003105683710460938</v>
       </c>
       <c r="I7">
-        <v>0.02122146290527471</v>
+        <v>0.01814710565702082</v>
       </c>
       <c r="J7">
-        <v>0.5388822758473282</v>
+        <v>0.5320194132294063</v>
       </c>
       <c r="K7">
-        <v>0.7133783695555493</v>
+        <v>0.5964496191400528</v>
       </c>
       <c r="L7">
-        <v>0.2412665657070221</v>
+        <v>0.3200096107414083</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1579153759063345</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2350758073640122</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,10 +773,16 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.936700236316398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.611941905924652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,40 +790,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03647428449457735</v>
+        <v>0.02046828456252525</v>
       </c>
       <c r="D8">
-        <v>0.158949745395546</v>
+        <v>0.1701669892174777</v>
       </c>
       <c r="E8">
-        <v>0.1991669867221262</v>
+        <v>0.2002807976560206</v>
       </c>
       <c r="F8">
-        <v>1.380827198761395</v>
+        <v>1.248618444558844</v>
       </c>
       <c r="G8">
-        <v>1.032372415228537</v>
+        <v>0.8985449897662079</v>
       </c>
       <c r="H8">
-        <v>0.006982228044071892</v>
+        <v>0.005717043693524437</v>
       </c>
       <c r="I8">
-        <v>0.02820751897738916</v>
+        <v>0.02353256154014627</v>
       </c>
       <c r="J8">
-        <v>0.6095156198090592</v>
+        <v>0.5743947207966613</v>
       </c>
       <c r="K8">
-        <v>0.8278481006225391</v>
+        <v>0.6787256198607068</v>
       </c>
       <c r="L8">
-        <v>0.2787502857161002</v>
+        <v>0.3357621573118337</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2032744367513288</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2706653335095837</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,10 +832,16 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3.414928372572518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.992772277470351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,40 +849,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04641565959613558</v>
+        <v>0.02613162363102273</v>
       </c>
       <c r="D9">
-        <v>0.190222214834975</v>
+        <v>0.2061334683407523</v>
       </c>
       <c r="E9">
-        <v>0.2473497715540489</v>
+        <v>0.2488011449748555</v>
       </c>
       <c r="F9">
-        <v>1.754172096806755</v>
+        <v>1.565182467042703</v>
       </c>
       <c r="G9">
-        <v>1.344234451255886</v>
+        <v>1.16035879622126</v>
       </c>
       <c r="H9">
-        <v>0.01512257932029959</v>
+        <v>0.01254955625934256</v>
       </c>
       <c r="I9">
-        <v>0.043584996733256</v>
+        <v>0.0352070975417389</v>
       </c>
       <c r="J9">
-        <v>0.7518042296857175</v>
+        <v>0.686348676583151</v>
       </c>
       <c r="K9">
-        <v>1.057791532826016</v>
+        <v>0.8464047621790201</v>
       </c>
       <c r="L9">
-        <v>0.3523399229077029</v>
+        <v>0.366565061706055</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3012052919972632</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3406018850434975</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,10 +891,16 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4.374537722984201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.770984471144629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,40 +908,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05331939824868215</v>
+        <v>0.03038347209816905</v>
       </c>
       <c r="D10">
-        <v>0.20835678305464</v>
+        <v>0.2284038070926755</v>
       </c>
       <c r="E10">
-        <v>0.2730225004308835</v>
+        <v>0.2748256159515847</v>
       </c>
       <c r="F10">
-        <v>2.007374795170676</v>
+        <v>1.768450884471363</v>
       </c>
       <c r="G10">
-        <v>1.559967264548874</v>
+        <v>1.371236043007201</v>
       </c>
       <c r="H10">
-        <v>0.02226620202504126</v>
+        <v>0.01851271476542227</v>
       </c>
       <c r="I10">
-        <v>0.05607692318918289</v>
+        <v>0.0445668035871627</v>
       </c>
       <c r="J10">
-        <v>0.8500368101289837</v>
+        <v>0.7175988482526634</v>
       </c>
       <c r="K10">
-        <v>1.216114099212561</v>
+        <v>0.9543171740712637</v>
       </c>
       <c r="L10">
-        <v>0.3901558707406565</v>
+        <v>0.3820086689178979</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3712262652311011</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3755490202024987</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,10 +950,16 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5.037918191419919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4.274122693426136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,40 +967,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05758020937536656</v>
+        <v>0.03112467675928876</v>
       </c>
       <c r="D11">
-        <v>0.1728498052415262</v>
+        <v>0.1920235844476679</v>
       </c>
       <c r="E11">
-        <v>0.2061694217057024</v>
+        <v>0.2071646510574574</v>
       </c>
       <c r="F11">
-        <v>1.925723988471148</v>
+        <v>1.670324866674136</v>
       </c>
       <c r="G11">
-        <v>1.534773313275934</v>
+        <v>1.412393902158101</v>
       </c>
       <c r="H11">
-        <v>0.04061369891373801</v>
+        <v>0.03665974346468914</v>
       </c>
       <c r="I11">
-        <v>0.05986846857067807</v>
+        <v>0.04740625732230441</v>
       </c>
       <c r="J11">
-        <v>0.834077364536455</v>
+        <v>0.6125287479825943</v>
       </c>
       <c r="K11">
-        <v>1.202455908476367</v>
+        <v>0.9271607598606693</v>
       </c>
       <c r="L11">
-        <v>0.2804129842086951</v>
+        <v>0.3620033882070501</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3724765444578964</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2666934881171841</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,10 +1009,16 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4.951272246614565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.123560110050789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,40 +1026,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06119363645554188</v>
+        <v>0.03136998460228835</v>
       </c>
       <c r="D12">
-        <v>0.1424361593474828</v>
+        <v>0.1590871974355395</v>
       </c>
       <c r="E12">
-        <v>0.1548373268956951</v>
+        <v>0.1547818197088446</v>
       </c>
       <c r="F12">
-        <v>1.808527686433578</v>
+        <v>1.555880658069654</v>
       </c>
       <c r="G12">
-        <v>1.472003262410368</v>
+        <v>1.38617524578035</v>
       </c>
       <c r="H12">
-        <v>0.0782814557793472</v>
+        <v>0.07438743657067448</v>
       </c>
       <c r="I12">
-        <v>0.06026239534418742</v>
+        <v>0.04762413368583029</v>
       </c>
       <c r="J12">
-        <v>0.8016760346678495</v>
+        <v>0.5489525383290896</v>
       </c>
       <c r="K12">
-        <v>1.162140595447184</v>
+        <v>0.889305872284055</v>
       </c>
       <c r="L12">
-        <v>0.2002530253199311</v>
+        <v>0.345008861021789</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.36143241668033</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1881310936501492</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,10 +1068,16 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4.750446547054366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.921172967442885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,40 +1085,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06347172871161177</v>
+        <v>0.031256736022371</v>
       </c>
       <c r="D13">
-        <v>0.1147180021732126</v>
+        <v>0.1274367649363413</v>
       </c>
       <c r="E13">
-        <v>0.112766103933339</v>
+        <v>0.1114685573777265</v>
       </c>
       <c r="F13">
-        <v>1.653574280502212</v>
+        <v>1.421763992118187</v>
       </c>
       <c r="G13">
-        <v>1.372588898416751</v>
+        <v>1.28978881823187</v>
       </c>
       <c r="H13">
-        <v>0.1322827171825907</v>
+        <v>0.1286718855051419</v>
       </c>
       <c r="I13">
-        <v>0.05818611895565784</v>
+        <v>0.04610692431862606</v>
       </c>
       <c r="J13">
-        <v>0.7526758056765175</v>
+        <v>0.5223318223871019</v>
       </c>
       <c r="K13">
-        <v>1.094104500649095</v>
+        <v>0.8388918294368892</v>
       </c>
       <c r="L13">
-        <v>0.1383019048160889</v>
+        <v>0.3282051498221747</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3396473344366058</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1283238696651097</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,10 +1127,16 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4.437115140260801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3.665744613886091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,40 +1144,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06425691128362843</v>
+        <v>0.03101835683141818</v>
       </c>
       <c r="D14">
-        <v>0.09725120707046386</v>
+        <v>0.1068232415657064</v>
       </c>
       <c r="E14">
-        <v>0.08915391559346908</v>
+        <v>0.08698512849998785</v>
       </c>
       <c r="F14">
-        <v>1.528568056046637</v>
+        <v>1.318659512343615</v>
       </c>
       <c r="G14">
-        <v>1.286336288771565</v>
+        <v>1.19234454200074</v>
       </c>
       <c r="H14">
-        <v>0.1801486642790024</v>
+        <v>0.1768203284818384</v>
       </c>
       <c r="I14">
-        <v>0.055715613720416</v>
+        <v>0.04435795552533683</v>
       </c>
       <c r="J14">
-        <v>0.7107841735705165</v>
+        <v>0.5177744633634092</v>
       </c>
       <c r="K14">
-        <v>1.033455441851132</v>
+        <v>0.7970916391743046</v>
       </c>
       <c r="L14">
-        <v>0.1061772097636222</v>
+        <v>0.3160749107975391</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3193818875763199</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0978223706361625</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,10 +1186,16 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4.166533482743148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3.460530165743762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,40 +1203,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06377644414022399</v>
+        <v>0.0307364736608875</v>
       </c>
       <c r="D15">
-        <v>0.0931678050819329</v>
+        <v>0.1018118809290272</v>
       </c>
       <c r="E15">
-        <v>0.08405496780433097</v>
+        <v>0.08168462020625178</v>
       </c>
       <c r="F15">
-        <v>1.489312064285798</v>
+        <v>1.288031006772869</v>
       </c>
       <c r="G15">
-        <v>1.25674310950302</v>
+        <v>1.154726127538169</v>
       </c>
       <c r="H15">
-        <v>0.1920429417390039</v>
+        <v>0.1888363115238434</v>
       </c>
       <c r="I15">
-        <v>0.0546488158859475</v>
+        <v>0.04364598892560245</v>
       </c>
       <c r="J15">
-        <v>0.6966777961635557</v>
+        <v>0.5222148361633572</v>
       </c>
       <c r="K15">
-        <v>1.011784450193929</v>
+        <v>0.783047977573041</v>
       </c>
       <c r="L15">
-        <v>0.09965445245130056</v>
+        <v>0.3126539645902966</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3117695144809431</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09176937275205077</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,10 +1245,16 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4.074241450258853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.39536136759358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,40 +1262,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05982600139730465</v>
+        <v>0.02887472567038962</v>
       </c>
       <c r="D16">
-        <v>0.09185286483000255</v>
+        <v>0.09891717490781105</v>
       </c>
       <c r="E16">
-        <v>0.08290204689370206</v>
+        <v>0.08059607134383029</v>
       </c>
       <c r="F16">
-        <v>1.414143374866441</v>
+        <v>1.241272459974397</v>
       </c>
       <c r="G16">
-        <v>1.184791697596978</v>
+        <v>1.040316963664438</v>
       </c>
       <c r="H16">
-        <v>0.176553381881476</v>
+        <v>0.1738602872653701</v>
       </c>
       <c r="I16">
-        <v>0.04973064981908681</v>
+        <v>0.04016237188977723</v>
       </c>
       <c r="J16">
-        <v>0.6645463235347506</v>
+        <v>0.5708497544475648</v>
       </c>
       <c r="K16">
-        <v>0.9571645007122243</v>
+        <v>0.7541249366169893</v>
       </c>
       <c r="L16">
-        <v>0.09802733496117</v>
+        <v>0.3111020535427258</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2894445928799456</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09092680442892842</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,10 +1304,16 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.854273454665531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.271072053522943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,40 +1321,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0563554887193547</v>
+        <v>0.02759962601407651</v>
       </c>
       <c r="D17">
-        <v>0.09968399680493434</v>
+        <v>0.1071456710234457</v>
       </c>
       <c r="E17">
-        <v>0.09340124577344255</v>
+        <v>0.09154323890799354</v>
       </c>
       <c r="F17">
-        <v>1.422055899040586</v>
+        <v>1.25788270284535</v>
       </c>
       <c r="G17">
-        <v>1.174982255015379</v>
+        <v>1.010816443791001</v>
       </c>
       <c r="H17">
-        <v>0.1374462939103154</v>
+        <v>0.1349851175171324</v>
       </c>
       <c r="I17">
-        <v>0.04729336961289388</v>
+        <v>0.03841760283889517</v>
       </c>
       <c r="J17">
-        <v>0.6619835065770019</v>
+        <v>0.6025819312491052</v>
       </c>
       <c r="K17">
-        <v>0.947160081767791</v>
+        <v>0.7527015880835677</v>
       </c>
       <c r="L17">
-        <v>0.1116763581828799</v>
+        <v>0.3160383691303466</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2824053232802726</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1044006053558668</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,10 +1363,16 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.82800011936996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3.277804052728357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,40 +1380,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05371528642115209</v>
+        <v>0.02695457966917081</v>
       </c>
       <c r="D18">
-        <v>0.1181074186712436</v>
+        <v>0.1274276556962661</v>
       </c>
       <c r="E18">
-        <v>0.1204353649860437</v>
+        <v>0.1193496240323135</v>
       </c>
       <c r="F18">
-        <v>1.505433787927515</v>
+        <v>1.337118930516027</v>
       </c>
       <c r="G18">
-        <v>1.21983011906525</v>
+        <v>1.040899598474866</v>
       </c>
       <c r="H18">
-        <v>0.08460576249986929</v>
+        <v>0.08216633624809333</v>
       </c>
       <c r="I18">
-        <v>0.04651679073975767</v>
+        <v>0.03776364608182536</v>
       </c>
       <c r="J18">
-        <v>0.6856221206168129</v>
+        <v>0.6379080268049506</v>
       </c>
       <c r="K18">
-        <v>0.9769179504573771</v>
+        <v>0.7791402152706652</v>
       </c>
       <c r="L18">
-        <v>0.1501690105922009</v>
+        <v>0.3288573085267785</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2891674492448146</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1419039813145346</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,10 +1422,16 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.972490421179032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.415405055705264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,40 +1439,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05076138994331814</v>
+        <v>0.02702086967461725</v>
       </c>
       <c r="D19">
-        <v>0.1471288779073348</v>
+        <v>0.1593764248676877</v>
       </c>
       <c r="E19">
-        <v>0.1670364578054588</v>
+        <v>0.1669387105744811</v>
       </c>
       <c r="F19">
-        <v>1.641482794337264</v>
+        <v>1.460406259257056</v>
       </c>
       <c r="G19">
-        <v>1.301429917366391</v>
+        <v>1.108637650618533</v>
       </c>
       <c r="H19">
-        <v>0.04077628458532701</v>
+        <v>0.0381624604445463</v>
       </c>
       <c r="I19">
-        <v>0.04750370241890245</v>
+        <v>0.03854690772834779</v>
       </c>
       <c r="J19">
-        <v>0.7265061440348859</v>
+        <v>0.6775199770236213</v>
       </c>
       <c r="K19">
-        <v>1.03124882019452</v>
+        <v>0.8223358522983943</v>
       </c>
       <c r="L19">
-        <v>0.2211118311825047</v>
+        <v>0.3457264251482215</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3050375262189249</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.21120893923203</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,10 +1481,16 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4.231039096430607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3.640798208294314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,40 +1498,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04951278227667899</v>
+        <v>0.02941764810110215</v>
       </c>
       <c r="D20">
-        <v>0.204159475467975</v>
+        <v>0.2225158445112783</v>
       </c>
       <c r="E20">
-        <v>0.2660457265964098</v>
+        <v>0.267606100303162</v>
       </c>
       <c r="F20">
-        <v>1.931037155715345</v>
+        <v>1.711831897395314</v>
       </c>
       <c r="G20">
-        <v>1.493682322270814</v>
+        <v>1.288348410897015</v>
       </c>
       <c r="H20">
-        <v>0.02018575747529461</v>
+        <v>0.01680528387058278</v>
       </c>
       <c r="I20">
-        <v>0.05301417989918722</v>
+        <v>0.04264071383733459</v>
       </c>
       <c r="J20">
-        <v>0.8194503952375669</v>
+        <v>0.7323400376901361</v>
       </c>
       <c r="K20">
-        <v>1.163933466824915</v>
+        <v>0.9204875939159365</v>
       </c>
       <c r="L20">
-        <v>0.37916747415629</v>
+        <v>0.3760463561482865</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.350397919088735</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.365585747815885</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,10 +1540,16 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4.833267889973854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.132963940188233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,40 +1557,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05478925445862615</v>
+        <v>0.03284516858182762</v>
       </c>
       <c r="D21">
-        <v>0.22646423541876</v>
+        <v>0.2522412541373171</v>
       </c>
       <c r="E21">
-        <v>0.3012217099851284</v>
+        <v>0.3041611575420831</v>
       </c>
       <c r="F21">
-        <v>2.162778148541875</v>
+        <v>1.870922678188876</v>
       </c>
       <c r="G21">
-        <v>1.683058224684629</v>
+        <v>1.573475589808851</v>
       </c>
       <c r="H21">
-        <v>0.02668460907504144</v>
+        <v>0.02205189997611634</v>
       </c>
       <c r="I21">
-        <v>0.06349971958930301</v>
+        <v>0.05008186407899284</v>
       </c>
       <c r="J21">
-        <v>0.9066287324678797</v>
+        <v>0.6299089131475313</v>
       </c>
       <c r="K21">
-        <v>1.302042051201369</v>
+        <v>0.9975803622853761</v>
       </c>
       <c r="L21">
-        <v>0.4336166581482388</v>
+        <v>0.3855722664720602</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4029863426004709</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4161263426352519</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,10 +1599,16 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5.417525095917483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.48750000955107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,40 +1616,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05914148402387553</v>
+        <v>0.035028764778545</v>
       </c>
       <c r="D22">
-        <v>0.2380474438527358</v>
+        <v>0.2688492473522786</v>
       </c>
       <c r="E22">
-        <v>0.3191417801157215</v>
+        <v>0.3230184396106637</v>
       </c>
       <c r="F22">
-        <v>2.307388350197229</v>
+        <v>1.965542618458883</v>
       </c>
       <c r="G22">
-        <v>1.804223258597347</v>
+        <v>1.771362119912311</v>
       </c>
       <c r="H22">
-        <v>0.03115953274935501</v>
+        <v>0.02564676164243895</v>
       </c>
       <c r="I22">
-        <v>0.07045212812989998</v>
+        <v>0.05484818976828798</v>
       </c>
       <c r="J22">
-        <v>0.962378135681206</v>
+        <v>0.5594845196240499</v>
       </c>
       <c r="K22">
-        <v>1.392098779327995</v>
+        <v>1.046037149865455</v>
       </c>
       <c r="L22">
-        <v>0.4611500707501506</v>
+        <v>0.3909517946783154</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4372026723146902</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4411080425306437</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,10 +1658,16 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.79127458140988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.702608746391036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,40 +1675,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05758518247567679</v>
+        <v>0.03382325742765246</v>
       </c>
       <c r="D23">
-        <v>0.2315380248179792</v>
+        <v>0.259124702063005</v>
       </c>
       <c r="E23">
-        <v>0.309493852353512</v>
+        <v>0.3127307233267587</v>
       </c>
       <c r="F23">
-        <v>2.233467175640754</v>
+        <v>1.922240942100942</v>
       </c>
       <c r="G23">
-        <v>1.742909027259145</v>
+        <v>1.653499486205448</v>
       </c>
       <c r="H23">
-        <v>0.02876522766286538</v>
+        <v>0.02374491900784581</v>
       </c>
       <c r="I23">
-        <v>0.06657910567516012</v>
+        <v>0.05210820566666197</v>
       </c>
       <c r="J23">
-        <v>0.9342805033828654</v>
+        <v>0.6149492146688971</v>
       </c>
       <c r="K23">
-        <v>1.347902982976805</v>
+        <v>1.026057987488031</v>
       </c>
       <c r="L23">
-        <v>0.4465875659221012</v>
+        <v>0.390144543379364</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4213001356309221</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4280589438899227</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,10 +1717,16 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5.602376031992037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.610548157390781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,40 +1734,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05041016564535994</v>
+        <v>0.02941059784413635</v>
       </c>
       <c r="D24">
-        <v>0.2076120659097427</v>
+        <v>0.2262319575956582</v>
       </c>
       <c r="E24">
-        <v>0.2732461872940988</v>
+        <v>0.2748994077592641</v>
       </c>
       <c r="F24">
-        <v>1.949984680502112</v>
+        <v>1.729344241441481</v>
       </c>
       <c r="G24">
-        <v>1.50661983039825</v>
+        <v>1.29877070754651</v>
       </c>
       <c r="H24">
-        <v>0.02036877361960898</v>
+        <v>0.01695452453552293</v>
       </c>
       <c r="I24">
-        <v>0.05283536005207345</v>
+        <v>0.04231761562411851</v>
       </c>
       <c r="J24">
-        <v>0.8259260185078006</v>
+        <v>0.7395434211682073</v>
       </c>
       <c r="K24">
-        <v>1.174906790523565</v>
+        <v>0.9297829532223716</v>
       </c>
       <c r="L24">
-        <v>0.3914154387425128</v>
+        <v>0.3797002055976932</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3537826663844541</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3776295293749712</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,10 +1776,16 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.874245777457645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>4.16999278032597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04261813540998105</v>
+        <v>0.02460966154994004</v>
       </c>
       <c r="D25">
-        <v>0.1821687372456324</v>
+        <v>0.1965665025632433</v>
       </c>
       <c r="E25">
-        <v>0.2344031856351378</v>
+        <v>0.2357087325176934</v>
       </c>
       <c r="F25">
-        <v>1.647737255810952</v>
+        <v>1.477013224312159</v>
       </c>
       <c r="G25">
-        <v>1.254471875475161</v>
+        <v>1.077392999408261</v>
       </c>
       <c r="H25">
-        <v>0.01265215390070595</v>
+        <v>0.01048552136622845</v>
       </c>
       <c r="I25">
-        <v>0.03937286478085777</v>
+        <v>0.03219812239586872</v>
       </c>
       <c r="J25">
-        <v>0.7105834199863352</v>
+        <v>0.664788239924988</v>
       </c>
       <c r="K25">
-        <v>0.9896935330457666</v>
+        <v>0.7975509779335894</v>
       </c>
       <c r="L25">
-        <v>0.3322099961374363</v>
+        <v>0.3572082604129321</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2726420153643474</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3215872756697848</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4.097798137175516</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.55278208285938</v>
       </c>
     </row>
   </sheetData>
